--- a/my1stProject/apb_subsystem/apb_subsystem.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsystem.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoC\demo\apb_subsystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820"/>
   </bookViews>
@@ -50,8 +45,8 @@
     <definedName name="vsupply">#REF!</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -64,7 +59,7 @@
     <author>shashank</author>
   </authors>
   <commentList>
-    <comment ref="D27" authorId="0" shapeId="0">
+    <comment ref="D27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0">
+    <comment ref="D41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D163" authorId="0" shapeId="0">
+    <comment ref="D163" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0">
+    <comment ref="D164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D165" authorId="0" shapeId="0">
+    <comment ref="D165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D166" authorId="0" shapeId="0">
+    <comment ref="D166" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="511">
   <si>
     <t>Component Name</t>
   </si>
@@ -1754,6 +1749,9 @@
     <t>i_apbbus_slv7_penable</t>
   </si>
   <si>
+    <t>i_apbbus_slv7_prdata</t>
+  </si>
+  <si>
     <t>in</t>
   </si>
   <si>
@@ -1833,25 +1831,13 @@
   </si>
   <si>
     <t>ex_ambaAHB_hprot[3:0]</t>
-  </si>
-  <si>
-    <t>spirit-design</t>
-  </si>
-  <si>
-    <t>spiritconsortium.org/busdef.leon2</t>
-  </si>
-  <si>
-    <t>apb_subsustem_design_arch</t>
-  </si>
-  <si>
-    <t>apb_subsustem_design_arch.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2633,7 +2619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2901,9 +2887,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3298,22 +3281,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
@@ -3321,128 +3304,128 @@
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="147" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="146" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1"/>
+    <row r="4" spans="1:11" ht="29.25" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="B5" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" ht="29.25" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="96" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" ht="29.25" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="96" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" ht="29.25" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="96">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="29.25" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
       <c r="B17" s="5"/>
     </row>
-    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" ht="29.25" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20" s="89"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="B21" s="90"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="B22" s="90"/>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1">
       <c r="B23" s="91"/>
     </row>
-    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" ht="29.25" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="B26" s="104"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="B27" s="107"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1">
       <c r="B28" s="108"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="B29" s="7"/>
     </row>
-    <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" ht="29.25" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1">
       <c r="B32" s="92"/>
     </row>
-    <row r="34" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" ht="29.25" thickBot="1">
       <c r="A34" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1">
       <c r="B35" s="15" t="s">
         <v>271</v>
       </c>
@@ -3462,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="B36" s="9"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -3470,7 +3453,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="B37" s="11"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3478,7 +3461,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="B38" s="11"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3486,7 +3469,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" s="11"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3494,7 +3477,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1">
       <c r="B40" s="100"/>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
@@ -3502,12 +3485,12 @@
       <c r="F40" s="101"/>
       <c r="G40" s="102"/>
     </row>
-    <row r="43" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" ht="29.25" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1">
       <c r="B44" s="15" t="s">
         <v>271</v>
       </c>
@@ -3527,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3535,7 +3518,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="B46" s="11"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3543,7 +3526,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="B47" s="11"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3551,7 +3534,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="B48" s="11"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -3559,7 +3542,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1">
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -3567,12 +3550,12 @@
       <c r="F49" s="101"/>
       <c r="G49" s="102"/>
     </row>
-    <row r="52" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" ht="29.25" thickBot="1">
       <c r="A52" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" thickBot="1">
       <c r="B53" s="15" t="s">
         <v>276</v>
       </c>
@@ -3580,17 +3563,17 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" thickBot="1">
       <c r="B54" s="105"/>
       <c r="C54" s="106"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="B55" s="79"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="B56" s="79"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="B57" s="79"/>
     </row>
   </sheetData>
@@ -3604,14 +3587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
@@ -3621,7 +3604,7 @@
     <col min="6" max="6" width="93.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
@@ -3638,60 +3621,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="30" customFormat="1">
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="30" customFormat="1">
       <c r="B5" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="173"/>
-      <c r="E5" s="175"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="30" customFormat="1">
       <c r="B6" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="175"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="174"/>
       <c r="F6" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="30" customFormat="1">
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="175"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="174"/>
       <c r="F7" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="40" customFormat="1">
       <c r="A8" s="37"/>
       <c r="B8" s="38" t="s">
         <v>27</v>
@@ -3699,13 +3682,13 @@
       <c r="C8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="173"/>
-      <c r="E8" s="175"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="174"/>
       <c r="F8" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="40" customFormat="1">
       <c r="A9" s="37"/>
       <c r="B9" s="38" t="s">
         <v>375</v>
@@ -3713,13 +3696,13 @@
       <c r="C9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="175"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="40" customFormat="1">
       <c r="A10" s="37"/>
       <c r="B10" s="38" t="s">
         <v>32</v>
@@ -3727,13 +3710,13 @@
       <c r="C10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="175"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="174"/>
       <c r="F10" s="36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="40" customFormat="1">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
         <v>35</v>
@@ -3741,13 +3724,13 @@
       <c r="C11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="173"/>
-      <c r="E11" s="175"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="174"/>
       <c r="F11" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="42"/>
       <c r="B12" s="34" t="s">
         <v>38</v>
@@ -3755,65 +3738,65 @@
       <c r="C12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="175"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="174"/>
       <c r="F12" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="B13" s="43" t="s">
         <v>376</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="175"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="174"/>
       <c r="F13" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="173"/>
-      <c r="E14" s="175"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="174"/>
       <c r="F14" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="175"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="174"/>
       <c r="F15" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="175"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="47"/>
       <c r="B17" s="34" t="s">
         <v>52</v>
@@ -3821,13 +3804,13 @@
       <c r="C17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="175"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="174"/>
       <c r="F17" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="48"/>
       <c r="B18" s="34" t="s">
         <v>55</v>
@@ -3835,13 +3818,13 @@
       <c r="C18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="175"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="174"/>
       <c r="F18" s="46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="48"/>
       <c r="B19" s="34" t="s">
         <v>58</v>
@@ -3849,11 +3832,11 @@
       <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="173"/>
-      <c r="E19" s="175"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="174"/>
       <c r="F19" s="46"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="48"/>
       <c r="B20" s="34" t="s">
         <v>60</v>
@@ -3861,40 +3844,40 @@
       <c r="C20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="175"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="174"/>
       <c r="F20" s="46"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="175"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="172"/>
+      <c r="E21" s="174"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22" s="49"/>
       <c r="C22" s="44"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="175"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="172"/>
+      <c r="E22" s="174"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="B23" s="43" t="s">
         <v>377</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="175"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="174"/>
       <c r="F23" s="46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="42"/>
       <c r="B24" s="50" t="s">
         <v>66</v>
@@ -3902,26 +3885,26 @@
       <c r="C24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="173"/>
-      <c r="E24" s="175"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="174"/>
       <c r="F24" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="B25" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="175"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="42"/>
       <c r="B26" s="51" t="s">
         <v>72</v>
@@ -3929,13 +3912,13 @@
       <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
       <c r="F26" s="46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="B27" s="51" t="s">
         <v>75</v>
       </c>
@@ -3945,12 +3928,12 @@
       <c r="D27" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="175"/>
+      <c r="E27" s="174"/>
       <c r="F27" s="46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="42"/>
       <c r="B28" s="51" t="s">
         <v>79</v>
@@ -3958,11 +3941,11 @@
       <c r="C28" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="176"/>
-      <c r="E28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="174"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="48"/>
       <c r="B29" s="43" t="s">
         <v>81</v>
@@ -3970,13 +3953,13 @@
       <c r="C29" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="174"/>
       <c r="F29" s="46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="48"/>
       <c r="B30" s="43" t="s">
         <v>378</v>
@@ -3984,11 +3967,11 @@
       <c r="C30" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="175"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="174"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="48"/>
       <c r="B31" s="34" t="s">
         <v>85</v>
@@ -3996,13 +3979,13 @@
       <c r="C31" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="175"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="174"/>
       <c r="F31" s="46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="48"/>
       <c r="B32" s="34" t="s">
         <v>88</v>
@@ -4010,11 +3993,11 @@
       <c r="C32" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="175"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="174"/>
       <c r="F32" s="46"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="48"/>
       <c r="B33" s="34" t="s">
         <v>90</v>
@@ -4022,11 +4005,11 @@
       <c r="C33" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="177"/>
-      <c r="E33" s="175"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="174"/>
       <c r="F33" s="46"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="48"/>
       <c r="B34" s="34" t="s">
         <v>92</v>
@@ -4034,11 +4017,11 @@
       <c r="C34" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="177"/>
-      <c r="E34" s="175"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="174"/>
       <c r="F34" s="46"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="48"/>
       <c r="B35" s="51" t="s">
         <v>94</v>
@@ -4046,55 +4029,55 @@
       <c r="C35" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="177"/>
-      <c r="E35" s="175"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="174"/>
       <c r="F35" s="46"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="B36" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="177"/>
-      <c r="E36" s="175"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="174"/>
       <c r="F36" s="46"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="B37" s="51"/>
       <c r="C37" s="44"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="175"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="174"/>
       <c r="F37" s="46"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="B38" s="43" t="s">
         <v>379</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="177"/>
-      <c r="E38" s="175"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="174"/>
       <c r="F38" s="46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="B39" s="43" t="s">
         <v>380</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="178"/>
-      <c r="E39" s="175"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="174"/>
       <c r="F39" s="46" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="48"/>
       <c r="B40" s="43" t="s">
         <v>381</v>
@@ -4105,12 +4088,12 @@
       <c r="D40" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="175"/>
+      <c r="E40" s="174"/>
       <c r="F40" s="46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="B41" s="54" t="s">
         <v>382</v>
       </c>
@@ -4120,12 +4103,12 @@
       <c r="D41" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="175"/>
+      <c r="E41" s="174"/>
       <c r="F41" s="46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="48"/>
       <c r="B42" s="43" t="s">
         <v>383</v>
@@ -4136,183 +4119,183 @@
       <c r="D42" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="175"/>
+      <c r="E42" s="174"/>
       <c r="F42" s="46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="B43" s="43" t="s">
         <v>384</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="179"/>
-      <c r="E43" s="175"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="174"/>
       <c r="F43" s="46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="B44" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="175"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="174"/>
       <c r="F44" s="46" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="B45" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="180"/>
-      <c r="E45" s="175"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="174"/>
       <c r="F45" s="46"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="B46" s="43"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="175"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="174"/>
       <c r="F46" s="46"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="B47" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="180"/>
-      <c r="E47" s="175"/>
+      <c r="D47" s="179"/>
+      <c r="E47" s="174"/>
       <c r="F47" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="B48" s="34" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="180"/>
-      <c r="E48" s="175"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="179"/>
+      <c r="E48" s="174"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="B49" s="56"/>
       <c r="C49" s="55"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="175"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="179"/>
+      <c r="E49" s="174"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="B50" s="43" t="s">
         <v>122</v>
       </c>
       <c r="C50" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="175"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="174"/>
       <c r="F50" s="46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="B51" s="43" t="s">
         <v>125</v>
       </c>
       <c r="C51" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="175"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="174"/>
       <c r="F51" s="46" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="B52" s="43" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="180"/>
-      <c r="E52" s="175"/>
+      <c r="D52" s="179"/>
+      <c r="E52" s="174"/>
       <c r="F52" s="46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="B53" s="43" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="180"/>
-      <c r="E53" s="175"/>
+      <c r="D53" s="179"/>
+      <c r="E53" s="174"/>
       <c r="F53" s="46" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="B54" s="43" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="180"/>
-      <c r="E54" s="175"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="174"/>
       <c r="F54" s="46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="B55" s="43" t="s">
         <v>137</v>
       </c>
       <c r="C55" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="180"/>
-      <c r="E55" s="175"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="174"/>
       <c r="F55" s="46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="B56" s="43" t="s">
         <v>140</v>
       </c>
       <c r="C56" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="180"/>
-      <c r="E56" s="175"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="174"/>
       <c r="F56" s="46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="B57" s="43"/>
       <c r="C57" s="55"/>
-      <c r="D57" s="180"/>
-      <c r="E57" s="175"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="174"/>
       <c r="F57" s="46"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="57"/>
       <c r="B58" s="43" t="s">
         <v>385</v>
@@ -4320,13 +4303,13 @@
       <c r="C58" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="180"/>
-      <c r="E58" s="175"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="174"/>
       <c r="F58" s="46" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="58"/>
       <c r="B59" s="43" t="s">
         <v>145</v>
@@ -4334,13 +4317,13 @@
       <c r="C59" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="180"/>
-      <c r="E59" s="175"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="174"/>
       <c r="F59" s="46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="58"/>
       <c r="B60" s="43" t="s">
         <v>148</v>
@@ -4348,13 +4331,13 @@
       <c r="C60" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="180"/>
-      <c r="E60" s="175"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="174"/>
       <c r="F60" s="46" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="58"/>
       <c r="B61" s="43" t="s">
         <v>151</v>
@@ -4362,13 +4345,13 @@
       <c r="C61" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="180"/>
-      <c r="E61" s="175"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="174"/>
       <c r="F61" s="46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="58"/>
       <c r="B62" s="43" t="s">
         <v>154</v>
@@ -4376,13 +4359,13 @@
       <c r="C62" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="180"/>
-      <c r="E62" s="175"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="174"/>
       <c r="F62" s="46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="59"/>
       <c r="B63" s="43" t="s">
         <v>156</v>
@@ -4390,13 +4373,13 @@
       <c r="C63" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="180"/>
-      <c r="E63" s="175"/>
+      <c r="D63" s="179"/>
+      <c r="E63" s="174"/>
       <c r="F63" s="46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="59"/>
       <c r="B64" s="43" t="s">
         <v>6</v>
@@ -4404,13 +4387,13 @@
       <c r="C64" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="180"/>
-      <c r="E64" s="175"/>
+      <c r="D64" s="179"/>
+      <c r="E64" s="174"/>
       <c r="F64" s="46" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="59"/>
       <c r="B65" s="43" t="s">
         <v>161</v>
@@ -4418,13 +4401,13 @@
       <c r="C65" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="180"/>
-      <c r="E65" s="175"/>
+      <c r="D65" s="179"/>
+      <c r="E65" s="174"/>
       <c r="F65" s="46" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="59"/>
       <c r="B66" s="43" t="s">
         <v>164</v>
@@ -4432,13 +4415,13 @@
       <c r="C66" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="180"/>
-      <c r="E66" s="175"/>
+      <c r="D66" s="179"/>
+      <c r="E66" s="174"/>
       <c r="F66" s="46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="59"/>
       <c r="B67" s="43" t="s">
         <v>167</v>
@@ -4446,26 +4429,26 @@
       <c r="C67" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="180"/>
-      <c r="E67" s="175"/>
+      <c r="D67" s="179"/>
+      <c r="E67" s="174"/>
       <c r="F67" s="46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="B68" s="43" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="180"/>
-      <c r="E68" s="175"/>
+      <c r="D68" s="179"/>
+      <c r="E68" s="174"/>
       <c r="F68" s="46" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="B69" s="43" t="s">
         <v>173</v>
       </c>
@@ -4478,7 +4461,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="B70" s="43" t="s">
         <v>176</v>
       </c>
@@ -4489,7 +4472,7 @@
       <c r="E70" s="60"/>
       <c r="F70" s="46"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="B71" s="43" t="s">
         <v>178</v>
       </c>
@@ -4502,28 +4485,28 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="B72" s="63"/>
       <c r="C72" s="64"/>
       <c r="D72" s="65"/>
       <c r="E72" s="66"/>
       <c r="F72" s="46"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="B73" s="63"/>
       <c r="C73" s="64"/>
       <c r="D73" s="65"/>
       <c r="E73" s="66"/>
       <c r="F73" s="46"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1">
       <c r="B74" s="63"/>
       <c r="C74" s="64"/>
       <c r="D74" s="65"/>
       <c r="E74" s="66"/>
       <c r="F74" s="46"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>243</v>
       </c>
@@ -4537,7 +4520,7 @@
       <c r="E75" s="66"/>
       <c r="F75" s="46"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
       <c r="B76" s="76" t="s">
         <v>386</v>
       </c>
@@ -4548,7 +4531,7 @@
       <c r="E76" s="66"/>
       <c r="F76" s="46"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1">
       <c r="B77" s="78" t="s">
         <v>387</v>
       </c>
@@ -4559,7 +4542,7 @@
       <c r="E77" s="66"/>
       <c r="F77" s="46"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1">
       <c r="B78" s="78" t="s">
         <v>388</v>
       </c>
@@ -4570,14 +4553,14 @@
       <c r="E78" s="66"/>
       <c r="F78" s="46"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1">
       <c r="B79" s="78"/>
       <c r="C79" s="77"/>
       <c r="D79" s="65"/>
       <c r="E79" s="66"/>
       <c r="F79" s="46"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1">
       <c r="A80" s="42" t="s">
         <v>12</v>
       </c>
@@ -4591,7 +4574,7 @@
       <c r="E80" s="66"/>
       <c r="F80" s="46"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1">
       <c r="B81" s="76" t="s">
         <v>390</v>
       </c>
@@ -4602,7 +4585,7 @@
       <c r="E81" s="66"/>
       <c r="F81" s="46"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1">
       <c r="B82" s="78" t="s">
         <v>391</v>
       </c>
@@ -4613,7 +4596,7 @@
       <c r="E82" s="66"/>
       <c r="F82" s="46"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1">
       <c r="B83" s="78" t="s">
         <v>392</v>
       </c>
@@ -4624,14 +4607,14 @@
       <c r="E83" s="66"/>
       <c r="F83" s="46"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="B84" s="63"/>
       <c r="C84" s="64"/>
       <c r="D84" s="65"/>
       <c r="E84" s="66"/>
       <c r="F84" s="46"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="42" t="s">
         <v>181</v>
       </c>
@@ -4641,7 +4624,7 @@
       <c r="E85" s="66"/>
       <c r="F85" s="46"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="B86" s="63" t="s">
         <v>9</v>
       </c>
@@ -4652,7 +4635,7 @@
       <c r="E86" s="66"/>
       <c r="F86" s="46"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="B87" s="63" t="s">
         <v>183</v>
       </c>
@@ -4663,7 +4646,7 @@
       <c r="E87" s="66"/>
       <c r="F87" s="46"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="B88" s="63" t="s">
         <v>393</v>
       </c>
@@ -4674,7 +4657,7 @@
       <c r="E88" s="66"/>
       <c r="F88" s="46"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="B89" s="63" t="s">
         <v>10</v>
       </c>
@@ -4685,7 +4668,7 @@
       <c r="E89" s="66"/>
       <c r="F89" s="46"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="B90" s="63" t="s">
         <v>187</v>
       </c>
@@ -4696,7 +4679,7 @@
       <c r="E90" s="66"/>
       <c r="F90" s="46"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="B91" s="63" t="s">
         <v>189</v>
       </c>
@@ -4707,7 +4690,7 @@
       <c r="E91" s="66"/>
       <c r="F91" s="46"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="B92" s="63" t="s">
         <v>11</v>
       </c>
@@ -4718,14 +4701,14 @@
       <c r="E92" s="66"/>
       <c r="F92" s="46"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="B93" s="63"/>
       <c r="C93" s="64"/>
       <c r="D93" s="65"/>
       <c r="E93" s="66"/>
       <c r="F93" s="46"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="42" t="s">
         <v>192</v>
       </c>
@@ -4735,7 +4718,7 @@
       <c r="E94" s="66"/>
       <c r="F94" s="46"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="B95" s="63" t="s">
         <v>394</v>
       </c>
@@ -4746,7 +4729,7 @@
       <c r="E95" s="66"/>
       <c r="F95" s="46"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="B96" s="63" t="s">
         <v>194</v>
       </c>
@@ -4757,7 +4740,7 @@
       <c r="E96" s="66"/>
       <c r="F96" s="46"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="B97" s="63" t="s">
         <v>196</v>
       </c>
@@ -4768,7 +4751,7 @@
       <c r="E97" s="66"/>
       <c r="F97" s="46"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="B98" s="63" t="s">
         <v>198</v>
       </c>
@@ -4779,7 +4762,7 @@
       <c r="E98" s="66"/>
       <c r="F98" s="46"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="B99" s="63" t="s">
         <v>200</v>
       </c>
@@ -4790,7 +4773,7 @@
       <c r="E99" s="66"/>
       <c r="F99" s="46"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="B100" s="63" t="s">
         <v>202</v>
       </c>
@@ -4801,7 +4784,7 @@
       <c r="E100" s="66"/>
       <c r="F100" s="46"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="B101" s="63" t="s">
         <v>204</v>
       </c>
@@ -4812,7 +4795,7 @@
       <c r="E101" s="66"/>
       <c r="F101" s="46"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="B102" s="63" t="s">
         <v>206</v>
       </c>
@@ -4823,7 +4806,7 @@
       <c r="E102" s="66"/>
       <c r="F102" s="46"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="B103" s="63" t="s">
         <v>208</v>
       </c>
@@ -4834,7 +4817,7 @@
       <c r="E103" s="66"/>
       <c r="F103" s="46"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="B104" s="63" t="s">
         <v>210</v>
       </c>
@@ -4845,7 +4828,7 @@
       <c r="E104" s="66"/>
       <c r="F104" s="46"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="B105" s="63" t="s">
         <v>212</v>
       </c>
@@ -4856,7 +4839,7 @@
       <c r="E105" s="66"/>
       <c r="F105" s="46"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="B106" s="63" t="s">
         <v>214</v>
       </c>
@@ -4867,14 +4850,14 @@
       <c r="E106" s="66"/>
       <c r="F106" s="46"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="B107" s="63"/>
       <c r="C107" s="64"/>
       <c r="D107" s="65"/>
       <c r="E107" s="66"/>
       <c r="F107" s="46"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="42" t="s">
         <v>8</v>
       </c>
@@ -4888,7 +4871,7 @@
       <c r="E108" s="66"/>
       <c r="F108" s="46"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="B109" s="63" t="s">
         <v>395</v>
       </c>
@@ -4899,14 +4882,14 @@
       <c r="E109" s="66"/>
       <c r="F109" s="46"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="B110" s="63"/>
       <c r="C110" s="64"/>
       <c r="D110" s="65"/>
       <c r="E110" s="66"/>
       <c r="F110" s="46"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="42" t="s">
         <v>245</v>
       </c>
@@ -4916,7 +4899,7 @@
       <c r="E111" s="66"/>
       <c r="F111" s="46"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="B112" s="63" t="s">
         <v>396</v>
       </c>
@@ -4927,7 +4910,7 @@
       <c r="E112" s="66"/>
       <c r="F112" s="46"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="B113" s="63" t="s">
         <v>397</v>
       </c>
@@ -4938,7 +4921,7 @@
       <c r="E113" s="66"/>
       <c r="F113" s="46"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="B114" s="63" t="s">
         <v>398</v>
       </c>
@@ -4949,7 +4932,7 @@
       <c r="E114" s="66"/>
       <c r="F114" s="46"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="B115" s="63" t="s">
         <v>399</v>
       </c>
@@ -4960,7 +4943,7 @@
       <c r="E115" s="66"/>
       <c r="F115" s="46"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="B116" s="63" t="s">
         <v>400</v>
       </c>
@@ -4971,7 +4954,7 @@
       <c r="E116" s="66"/>
       <c r="F116" s="46"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="B117" s="63" t="s">
         <v>401</v>
       </c>
@@ -4982,7 +4965,7 @@
       <c r="E117" s="66"/>
       <c r="F117" s="46"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="B118" s="63" t="s">
         <v>402</v>
       </c>
@@ -4993,7 +4976,7 @@
       <c r="E118" s="66"/>
       <c r="F118" s="46"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="B119" s="63" t="s">
         <v>403</v>
       </c>
@@ -5004,14 +4987,14 @@
       <c r="E119" s="66"/>
       <c r="F119" s="46"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="B120" s="63"/>
       <c r="C120" s="64"/>
       <c r="D120" s="65"/>
       <c r="E120" s="66"/>
       <c r="F120" s="46"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="42" t="s">
         <v>335</v>
       </c>
@@ -5021,7 +5004,7 @@
       <c r="E121" s="66"/>
       <c r="F121" s="46"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="B122" s="63" t="s">
         <v>336</v>
       </c>
@@ -5032,7 +5015,7 @@
       <c r="E122" s="66"/>
       <c r="F122" s="46"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="B123" s="63" t="s">
         <v>268</v>
       </c>
@@ -5043,7 +5026,7 @@
       <c r="E123" s="66"/>
       <c r="F123" s="46"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="B124" s="63" t="s">
         <v>267</v>
       </c>
@@ -5054,7 +5037,7 @@
       <c r="E124" s="66"/>
       <c r="F124" s="46"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="B125" s="63" t="s">
         <v>269</v>
       </c>
@@ -5065,7 +5048,7 @@
       <c r="E125" s="66"/>
       <c r="F125" s="46"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="B126" s="63" t="s">
         <v>404</v>
       </c>
@@ -5076,7 +5059,7 @@
       <c r="E126" s="66"/>
       <c r="F126" s="46"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="B127" s="63" t="s">
         <v>342</v>
       </c>
@@ -5087,7 +5070,7 @@
       <c r="E127" s="66"/>
       <c r="F127" s="46"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="B128" s="63" t="s">
         <v>344</v>
       </c>
@@ -5098,7 +5081,7 @@
       <c r="E128" s="66"/>
       <c r="F128" s="46"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="B129" s="63" t="s">
         <v>346</v>
       </c>
@@ -5109,7 +5092,7 @@
       <c r="E129" s="66"/>
       <c r="F129" s="46"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="B130" s="63" t="s">
         <v>405</v>
       </c>
@@ -5120,7 +5103,7 @@
       <c r="E130" s="66"/>
       <c r="F130" s="46"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="B131" s="63" t="s">
         <v>406</v>
       </c>
@@ -5131,21 +5114,21 @@
       <c r="E131" s="66"/>
       <c r="F131" s="46"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="B132" s="63"/>
       <c r="C132" s="64"/>
       <c r="D132" s="65"/>
       <c r="E132" s="66"/>
       <c r="F132" s="46"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="B133" s="63"/>
       <c r="C133" s="64"/>
       <c r="D133" s="65"/>
       <c r="E133" s="66"/>
       <c r="F133" s="46"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="42" t="s">
         <v>350</v>
       </c>
@@ -5155,7 +5138,7 @@
       <c r="E134" s="66"/>
       <c r="F134" s="46"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="B135" s="63" t="s">
         <v>351</v>
       </c>
@@ -5166,7 +5149,7 @@
       <c r="E135" s="66"/>
       <c r="F135" s="46"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="B136" s="63" t="s">
         <v>407</v>
       </c>
@@ -5177,7 +5160,7 @@
       <c r="E136" s="66"/>
       <c r="F136" s="46"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="B137" s="63" t="s">
         <v>354</v>
       </c>
@@ -5188,7 +5171,7 @@
       <c r="E137" s="66"/>
       <c r="F137" s="46"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="B138" s="63" t="s">
         <v>408</v>
       </c>
@@ -5199,7 +5182,7 @@
       <c r="E138" s="66"/>
       <c r="F138" s="46"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="B139" s="63" t="s">
         <v>409</v>
       </c>
@@ -5210,7 +5193,7 @@
       <c r="E139" s="66"/>
       <c r="F139" s="46"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="B140" s="63" t="s">
         <v>410</v>
       </c>
@@ -5221,14 +5204,14 @@
       <c r="E140" s="66"/>
       <c r="F140" s="46"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="B141" s="63"/>
       <c r="C141" s="64"/>
       <c r="D141" s="65"/>
       <c r="E141" s="66"/>
       <c r="F141" s="46"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="42" t="s">
         <v>359</v>
       </c>
@@ -5238,7 +5221,7 @@
       <c r="E142" s="66"/>
       <c r="F142" s="46"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="B143" s="63" t="s">
         <v>411</v>
       </c>
@@ -5249,7 +5232,7 @@
       <c r="E143" s="66"/>
       <c r="F143" s="46"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="B144" s="63" t="s">
         <v>412</v>
       </c>
@@ -5260,7 +5243,7 @@
       <c r="E144" s="66"/>
       <c r="F144" s="46"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="B145" s="63" t="s">
         <v>362</v>
       </c>
@@ -5271,7 +5254,7 @@
       <c r="E145" s="66"/>
       <c r="F145" s="46"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="B146" s="63" t="s">
         <v>413</v>
       </c>
@@ -5282,7 +5265,7 @@
       <c r="E146" s="66"/>
       <c r="F146" s="46"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="B147" s="63" t="s">
         <v>414</v>
       </c>
@@ -5293,7 +5276,7 @@
       <c r="E147" s="66"/>
       <c r="F147" s="46"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="B148" s="63" t="s">
         <v>415</v>
       </c>
@@ -5304,7 +5287,7 @@
       <c r="E148" s="66"/>
       <c r="F148" s="46"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="42" t="s">
         <v>278</v>
       </c>
@@ -5314,7 +5297,7 @@
       <c r="E149" s="66"/>
       <c r="F149" s="46"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="B150" s="63" t="s">
         <v>279</v>
       </c>
@@ -5325,7 +5308,7 @@
       <c r="E150" s="66"/>
       <c r="F150" s="46"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="B151" s="63" t="s">
         <v>281</v>
       </c>
@@ -5336,7 +5319,7 @@
       <c r="E151" s="66"/>
       <c r="F151" s="46"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="B152" s="63" t="s">
         <v>283</v>
       </c>
@@ -5347,7 +5330,7 @@
       <c r="E152" s="66"/>
       <c r="F152" s="46"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="B153" s="63" t="s">
         <v>285</v>
       </c>
@@ -5358,7 +5341,7 @@
       <c r="E153" s="66"/>
       <c r="F153" s="46"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="B154" s="63" t="s">
         <v>287</v>
       </c>
@@ -5369,7 +5352,7 @@
       <c r="E154" s="66"/>
       <c r="F154" s="46"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="B155" s="63" t="s">
         <v>289</v>
       </c>
@@ -5380,43 +5363,43 @@
       <c r="E155" s="66"/>
       <c r="F155" s="46"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="B156" s="63"/>
       <c r="C156" s="64"/>
       <c r="D156" s="65"/>
       <c r="E156" s="66"/>
       <c r="F156" s="46"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="B157" s="63"/>
       <c r="C157" s="64"/>
       <c r="D157" s="65"/>
       <c r="E157" s="66"/>
       <c r="F157" s="46"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="B158" s="63"/>
       <c r="C158" s="64"/>
       <c r="D158" s="65"/>
       <c r="E158" s="66"/>
       <c r="F158" s="46"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="B159" s="63"/>
       <c r="C159" s="64"/>
       <c r="D159" s="65"/>
       <c r="E159" s="66"/>
       <c r="F159" s="46"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="B160" s="63"/>
       <c r="C160" s="64"/>
       <c r="D160" s="65"/>
       <c r="E160" s="66"/>
       <c r="F160" s="46"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="181" t="s">
+    <row r="162" spans="1:6">
+      <c r="A162" s="180" t="s">
         <v>216</v>
       </c>
       <c r="B162" s="23" t="s">
@@ -5435,8 +5418,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="182"/>
+    <row r="163" spans="1:6">
+      <c r="A163" s="181"/>
       <c r="B163" s="34" t="s">
         <v>217</v>
       </c>
@@ -5449,8 +5432,8 @@
       </c>
       <c r="F163" s="46"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="182"/>
+    <row r="164" spans="1:6">
+      <c r="A164" s="181"/>
       <c r="B164" s="43" t="s">
         <v>220</v>
       </c>
@@ -5463,8 +5446,8 @@
       </c>
       <c r="F164" s="46"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="182"/>
+    <row r="165" spans="1:6">
+      <c r="A165" s="181"/>
       <c r="B165" s="34" t="s">
         <v>222</v>
       </c>
@@ -5477,8 +5460,8 @@
       </c>
       <c r="F165" s="46"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="182"/>
+    <row r="166" spans="1:6">
+      <c r="A166" s="181"/>
       <c r="B166" s="34" t="s">
         <v>224</v>
       </c>
@@ -5491,58 +5474,58 @@
       </c>
       <c r="F166" s="46"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="68"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="68"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="68"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="C171" s="69" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="D172" s="70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="D173" s="70" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="D174" s="70" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="D175" s="71" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="D176" s="36" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:5">
       <c r="D177" s="72"/>
       <c r="E177" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:5">
       <c r="D178" s="73"/>
       <c r="E178" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:5">
       <c r="D179" s="140"/>
       <c r="E179" t="s">
         <v>234</v>
@@ -5563,15 +5546,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -5580,15 +5563,15 @@
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:11" ht="29.25" thickBot="1">
+      <c r="A1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="151" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="150" t="s">
         <v>374</v>
       </c>
-      <c r="D1" s="152"/>
+      <c r="D1" s="151"/>
       <c r="E1" s="141"/>
       <c r="F1" s="141"/>
       <c r="G1" s="141"/>
@@ -5597,7 +5580,7 @@
       <c r="J1" s="141"/>
       <c r="K1" s="141"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
@@ -5611,7 +5594,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="110" t="s">
         <v>264</v>
       </c>
@@ -5619,7 +5602,7 @@
       <c r="D3" s="111"/>
       <c r="E3" s="103"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="17"/>
       <c r="C4" s="7" t="s">
         <v>300</v>
@@ -5631,49 +5614,49 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="17"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="17"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="17"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="17"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="17"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" s="17"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="17"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -5695,38 +5678,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A1" s="148" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="151" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="B2" s="15" t="s">
         <v>279</v>
       </c>
@@ -5746,27 +5729,17 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="110" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" s="111" t="s">
-        <v>418</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>512</v>
-      </c>
-      <c r="F3" s="111">
-        <v>1</v>
-      </c>
-      <c r="G3" s="142" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="103"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="17"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5774,15 +5747,17 @@
       <c r="F4" s="7"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:7">
+      <c r="B5" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5800,7 +5775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5808,7 +5783,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -5818,12 +5793,12 @@
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="29.25" thickBot="1">
       <c r="A1" s="93" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="82" t="s">
         <v>329</v>
       </c>
@@ -5837,7 +5812,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="81" t="s">
         <v>294</v>
       </c>
@@ -5845,7 +5820,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
         <v>292</v>
@@ -5857,7 +5832,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
         <v>293</v>
@@ -5867,7 +5842,7 @@
       </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="81" t="s">
         <v>295</v>
       </c>
@@ -5875,7 +5850,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>292</v>
@@ -5885,7 +5860,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>293</v>
@@ -5895,121 +5870,121 @@
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="11"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="11"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="11"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="11"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="11"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="11"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="11"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="11"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="11"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="11"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="80"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="11"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="11"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="11"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="11"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="11"/>
       <c r="B26" s="95"/>
       <c r="C26" s="6"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="17"/>
       <c r="B27" s="94"/>
       <c r="C27" s="94"/>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
       <c r="A28" s="20"/>
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
@@ -6022,15 +5997,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -6040,19 +6015,19 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:6" ht="29.25" thickBot="1">
+      <c r="A1" s="152" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="151" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="150" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
@@ -6069,451 +6044,451 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="9" t="s">
         <v>452</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" s="11" t="s">
         <v>454</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="11" t="s">
         <v>425</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>483</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" s="85" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="11" t="s">
         <v>442</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="11" t="s">
         <v>430</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="B26" s="11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28" s="11" t="s">
         <v>465</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="B29" s="11" t="s">
         <v>459</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30" s="11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="11" t="s">
         <v>461</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" s="11" t="s">
         <v>475</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="B35" s="11" t="s">
         <v>472</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="11" t="s">
         <v>473</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="15.75" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="11" t="s">
         <v>482</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="11" t="s">
         <v>479</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43" s="11" t="s">
         <v>480</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -6534,15 +6509,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -6554,26 +6529,26 @@
     <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="148" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="147" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="146" t="s">
         <v>372</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="157"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="136" t="s">
         <v>320</v>
       </c>
@@ -6619,7 +6594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6627,7 +6602,7 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
@@ -6640,20 +6615,20 @@
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:13" ht="29.25" thickBot="1">
+      <c r="A1" s="148" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="147" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="146" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-    </row>
-    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+    </row>
+    <row r="2" spans="1:13" ht="30.75" thickBot="1">
       <c r="B2" s="136" t="s">
         <v>301</v>
       </c>
@@ -6691,8 +6666,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="160"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B3" s="159"/>
       <c r="C3" s="112"/>
       <c r="D3" s="113"/>
       <c r="E3" s="114"/>
@@ -6705,11 +6680,11 @@
       <c r="L3" s="118"/>
       <c r="M3" s="118"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="115"/>
       <c r="G4" s="116"/>
       <c r="H4" s="117"/>
@@ -6719,11 +6694,11 @@
       <c r="L4" s="119"/>
       <c r="M4" s="118"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
       <c r="F5" s="115"/>
       <c r="G5" s="116"/>
       <c r="H5" s="116"/>
@@ -6733,11 +6708,11 @@
       <c r="L5" s="119"/>
       <c r="M5" s="118"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="115"/>
       <c r="G6" s="116"/>
       <c r="H6" s="120"/>
@@ -6747,11 +6722,11 @@
       <c r="L6" s="119"/>
       <c r="M6" s="118"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="162"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="161"/>
       <c r="F7" s="115"/>
       <c r="G7" s="121"/>
       <c r="H7" s="120"/>
@@ -6761,11 +6736,11 @@
       <c r="L7" s="119"/>
       <c r="M7" s="118"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="161"/>
       <c r="F8" s="115"/>
       <c r="G8" s="121"/>
       <c r="H8" s="120"/>
@@ -6775,8 +6750,8 @@
       <c r="L8" s="123"/>
       <c r="M8" s="124"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B9" s="159"/>
       <c r="C9" s="92"/>
       <c r="D9" s="113"/>
       <c r="E9" s="114"/>
@@ -6789,8 +6764,8 @@
       <c r="L9" s="123"/>
       <c r="M9" s="124"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="160"/>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B10" s="159"/>
       <c r="C10" s="112"/>
       <c r="D10" s="113"/>
       <c r="E10" s="114"/>
@@ -6803,8 +6778,8 @@
       <c r="L10" s="125"/>
       <c r="M10" s="113"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="160"/>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B11" s="159"/>
       <c r="C11" s="126"/>
       <c r="D11" s="118"/>
       <c r="E11" s="127"/>
@@ -6817,10 +6792,10 @@
       <c r="L11" s="118"/>
       <c r="M11" s="118"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="159"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="114"/>
       <c r="F12" s="115"/>
       <c r="G12" s="116"/>
@@ -6831,10 +6806,10 @@
       <c r="L12" s="124"/>
       <c r="M12" s="124"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="114"/>
       <c r="F13" s="115"/>
       <c r="G13" s="116"/>
@@ -6845,10 +6820,10 @@
       <c r="L13" s="124"/>
       <c r="M13" s="124"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="114"/>
       <c r="F14" s="115"/>
       <c r="G14" s="116"/>
@@ -6859,10 +6834,10 @@
       <c r="L14" s="124"/>
       <c r="M14" s="124"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="159"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
       <c r="G15" s="116"/>
@@ -6873,10 +6848,10 @@
       <c r="L15" s="124"/>
       <c r="M15" s="124"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
       <c r="E16" s="114"/>
       <c r="F16" s="115"/>
       <c r="G16" s="116"/>
@@ -6887,10 +6862,10 @@
       <c r="L16" s="124"/>
       <c r="M16" s="124"/>
     </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
+    <row r="17" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
       <c r="E17" s="114"/>
       <c r="F17" s="115"/>
       <c r="G17" s="116"/>
@@ -6901,10 +6876,10 @@
       <c r="L17" s="124"/>
       <c r="M17" s="124"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="114"/>
       <c r="F18" s="115"/>
       <c r="G18" s="116"/>
@@ -6915,10 +6890,10 @@
       <c r="L18" s="124"/>
       <c r="M18" s="124"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="114"/>
       <c r="F19" s="115"/>
       <c r="G19" s="116"/>
@@ -6929,7 +6904,7 @@
       <c r="L19" s="124"/>
       <c r="M19" s="124"/>
     </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="15.75" thickBot="1">
       <c r="B20" s="117"/>
       <c r="C20" s="112"/>
       <c r="D20" s="113"/>
@@ -6943,7 +6918,7 @@
       <c r="L20" s="124"/>
       <c r="M20" s="124"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="15.75" thickBot="1">
       <c r="B21" s="117"/>
       <c r="C21" s="112"/>
       <c r="D21" s="113"/>
@@ -6957,7 +6932,7 @@
       <c r="L21" s="122"/>
       <c r="M21" s="122"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="15.75" thickBot="1">
       <c r="B22" s="117"/>
       <c r="C22" s="112"/>
       <c r="D22" s="113"/>
@@ -6995,42 +6970,42 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:12" ht="29.25" thickBot="1">
+      <c r="A1" s="152" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="147" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="146" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-    </row>
-    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75">
       <c r="A3" s="129" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="B5" s="82" t="s">
         <v>306</v>
       </c>
@@ -7044,183 +7019,183 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="B6" s="130"/>
       <c r="C6" s="131"/>
       <c r="D6" s="131"/>
       <c r="E6" s="106"/>
     </row>
-    <row r="8" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="34.5" thickBot="1">
       <c r="A8" s="129" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="B9" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="168"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="167"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="9"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="170"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="169"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="11"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="172"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="171"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="11"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="172"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="171"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="B13" s="11"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="172"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="171"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="11"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="172"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="171"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="B15" s="11"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="172"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="11"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="172"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="171"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="B17" s="11"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="171"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="B18" s="11"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="172"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="171"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="B19" s="11"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="172"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="171"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="B20" s="100"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="165"/>
-    </row>
-    <row r="22" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="164"/>
+    </row>
+    <row r="22" spans="1:12" ht="34.5" thickBot="1">
       <c r="A22" s="129" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="B23" s="82" t="s">
         <v>206</v>
       </c>
@@ -7240,7 +7215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
       <c r="D24" s="98"/>
@@ -7248,7 +7223,7 @@
       <c r="F24" s="98"/>
       <c r="G24" s="99"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="B25" s="11"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -7256,7 +7231,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="B26" s="11"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -7264,7 +7239,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="B27" s="100"/>
       <c r="C27" s="101"/>
       <c r="D27" s="101"/>
@@ -7294,18 +7269,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
@@ -7314,21 +7289,21 @@
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="29.25" thickBot="1">
       <c r="A1" s="88" t="s">
         <v>259</v>
       </c>
       <c r="B1" s="135"/>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="146" t="s">
         <v>371</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="136" t="s">
         <v>313</v>
       </c>
@@ -7354,7 +7329,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="19" t="s">
         <v>419</v>
       </c>
@@ -7365,7 +7340,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="17"/>
       <c r="C4" t="s">
         <v>420</v>
@@ -7378,7 +7353,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>422</v>
@@ -7391,7 +7366,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="17"/>
       <c r="C6" s="87" t="s">
         <v>424</v>
@@ -7404,7 +7379,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>426</v>
       </c>
@@ -7415,7 +7390,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="17"/>
       <c r="C8" s="87" t="s">
         <v>427</v>
@@ -7428,7 +7403,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="17"/>
       <c r="C9" s="87" t="s">
         <v>429</v>
@@ -7441,7 +7416,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="17"/>
       <c r="C10" s="87" t="s">
         <v>431</v>
@@ -7454,7 +7429,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="17"/>
       <c r="C11" s="87" t="s">
         <v>433</v>
@@ -7467,7 +7442,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="17"/>
       <c r="B12" s="14"/>
       <c r="C12" s="87" t="s">
@@ -7481,7 +7456,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="17"/>
       <c r="B13" s="14"/>
       <c r="C13" s="87" t="s">
@@ -7495,7 +7470,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="17"/>
       <c r="B14" s="14"/>
       <c r="C14" s="87" t="s">
@@ -7509,7 +7484,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="17"/>
       <c r="B15" s="14"/>
       <c r="C15" s="87" t="s">
@@ -7523,7 +7498,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="17"/>
       <c r="B16" s="14"/>
       <c r="C16" s="87" t="s">
@@ -7537,7 +7512,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="17"/>
       <c r="B17" s="14"/>
       <c r="C17" s="87" t="s">
@@ -7551,7 +7526,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="17"/>
       <c r="B18" s="14"/>
       <c r="C18" s="87" t="s">
@@ -7565,7 +7540,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="17"/>
       <c r="B19" s="14"/>
       <c r="C19" s="87" t="s">
@@ -7579,7 +7554,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="17"/>
       <c r="B20" s="14"/>
       <c r="C20" s="87" t="s">
@@ -7593,7 +7568,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="17"/>
       <c r="B21" s="14"/>
       <c r="C21" s="87" t="s">
@@ -7607,7 +7582,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="17" t="s">
         <v>455</v>
       </c>
@@ -7619,7 +7594,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="87" t="s">
@@ -7633,7 +7608,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="87" t="s">
@@ -7647,7 +7622,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="87" t="s">
@@ -7661,7 +7636,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="87" t="s">
@@ -7675,7 +7650,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="87" t="s">
@@ -7689,7 +7664,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="87" t="s">
@@ -7703,7 +7678,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="87" t="s">
@@ -7717,7 +7692,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="17"/>
       <c r="B30" s="14"/>
       <c r="C30" s="87" t="s">
@@ -7731,7 +7706,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="17" t="s">
         <v>470</v>
       </c>
@@ -7743,7 +7718,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="17"/>
       <c r="B32" s="14"/>
       <c r="C32" s="87" t="s">
@@ -7757,7 +7732,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="17"/>
       <c r="B33" s="14"/>
       <c r="C33" s="87" t="s">
@@ -7771,7 +7746,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="17"/>
       <c r="B34" s="14"/>
       <c r="C34" s="87" t="s">
@@ -7785,7 +7760,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="17"/>
       <c r="B35" s="14"/>
       <c r="C35" s="87" t="s">
@@ -7799,7 +7774,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="17"/>
       <c r="B36" s="14"/>
       <c r="C36" s="87" t="s">
@@ -7813,7 +7788,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="17"/>
       <c r="B37" s="14"/>
       <c r="C37" s="87" t="s">
@@ -7827,7 +7802,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="17"/>
       <c r="B38" s="14"/>
       <c r="C38" s="87" t="s">
@@ -7841,7 +7816,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="14"/>
       <c r="C39" s="87" t="s">
@@ -7855,7 +7830,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="17" t="s">
         <v>477</v>
       </c>
@@ -7867,7 +7842,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="17"/>
       <c r="B41" s="14"/>
       <c r="C41" s="87" t="s">
@@ -7881,7 +7856,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="18"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="17"/>
       <c r="B42" s="14"/>
       <c r="C42" s="87" t="s">
@@ -7895,7 +7870,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="18"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="17"/>
       <c r="B43" s="14"/>
       <c r="C43" s="87" t="s">
@@ -7909,7 +7884,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="18"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="17"/>
       <c r="B44" s="14"/>
       <c r="C44" s="87" t="s">
@@ -7923,61 +7898,63 @@
       <c r="G44" s="7"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="17"/>
-      <c r="B45" s="14" t="s">
-        <v>511</v>
-      </c>
+      <c r="B45" s="14"/>
       <c r="C45" s="87" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="17"/>
       <c r="B46" s="14"/>
       <c r="C46" s="87" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="17"/>
       <c r="B47" s="14"/>
       <c r="C47" s="87" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="D47" s="87" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="17"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
+      <c r="C48" s="87" t="s">
+        <v>469</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>454</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="17"/>
       <c r="B49" s="14"/>
       <c r="C49" s="7"/>
@@ -7987,7 +7964,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="17"/>
       <c r="B50" s="14"/>
       <c r="C50" s="7"/>
@@ -7997,7 +7974,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="17"/>
       <c r="B51" s="14"/>
       <c r="C51" s="7"/>
@@ -8007,7 +7984,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="17"/>
       <c r="B52" s="14"/>
       <c r="C52" s="7"/>
@@ -8017,7 +7994,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="14"/>
       <c r="C53" s="7"/>
@@ -8027,7 +8004,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="18"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="17"/>
       <c r="B54" s="14"/>
       <c r="C54" s="7"/>

--- a/my1stProject/apb_subsystem/apb_subsystem.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsystem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="515">
   <si>
     <t>Component Name</t>
   </si>
@@ -1831,6 +1831,18 @@
   </si>
   <si>
     <t>ex_ambaAHB_hprot[3:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_paddr</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_pwdata</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_prdata</t>
   </si>
 </sst>
 </file>
@@ -2937,10 +2949,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3281,7 +3293,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3291,7 +3303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -6000,9 +6012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6667,7 +6679,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B3" s="159"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="112"/>
       <c r="D3" s="113"/>
       <c r="E3" s="114"/>
@@ -6681,8 +6693,8 @@
       <c r="M3" s="118"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
       <c r="D4" s="160"/>
       <c r="E4" s="161"/>
       <c r="F4" s="115"/>
@@ -6695,8 +6707,8 @@
       <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="160"/>
       <c r="E5" s="161"/>
       <c r="F5" s="115"/>
@@ -6709,8 +6721,8 @@
       <c r="M5" s="118"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="160"/>
       <c r="E6" s="161"/>
       <c r="F6" s="115"/>
@@ -6723,8 +6735,8 @@
       <c r="M6" s="118"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="160"/>
       <c r="E7" s="161"/>
       <c r="F7" s="115"/>
@@ -6737,8 +6749,8 @@
       <c r="M7" s="118"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="160"/>
       <c r="E8" s="161"/>
       <c r="F8" s="115"/>
@@ -6751,7 +6763,7 @@
       <c r="M8" s="124"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B9" s="159"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="92"/>
       <c r="D9" s="113"/>
       <c r="E9" s="114"/>
@@ -6765,7 +6777,7 @@
       <c r="M9" s="124"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B10" s="159"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="112"/>
       <c r="D10" s="113"/>
       <c r="E10" s="114"/>
@@ -6779,7 +6791,7 @@
       <c r="M10" s="113"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B11" s="159"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="126"/>
       <c r="D11" s="118"/>
       <c r="E11" s="127"/>
@@ -6793,8 +6805,8 @@
       <c r="M11" s="118"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B12" s="158"/>
-      <c r="C12" s="159"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="160"/>
       <c r="E12" s="114"/>
       <c r="F12" s="115"/>
@@ -6807,8 +6819,8 @@
       <c r="M12" s="124"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B13" s="158"/>
-      <c r="C13" s="159"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="158"/>
       <c r="D13" s="160"/>
       <c r="E13" s="114"/>
       <c r="F13" s="115"/>
@@ -6821,8 +6833,8 @@
       <c r="M13" s="124"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="160"/>
       <c r="E14" s="114"/>
       <c r="F14" s="115"/>
@@ -6835,8 +6847,8 @@
       <c r="M14" s="124"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B15" s="158"/>
-      <c r="C15" s="159"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="160"/>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
@@ -6849,8 +6861,8 @@
       <c r="M15" s="124"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B16" s="158"/>
-      <c r="C16" s="159"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="160"/>
       <c r="E16" s="114"/>
       <c r="F16" s="115"/>
@@ -6863,8 +6875,8 @@
       <c r="M16" s="124"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="160"/>
       <c r="E17" s="114"/>
       <c r="F17" s="115"/>
@@ -6877,8 +6889,8 @@
       <c r="M17" s="124"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="160"/>
       <c r="E18" s="114"/>
       <c r="F18" s="115"/>
@@ -6891,8 +6903,8 @@
       <c r="M18" s="124"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="158"/>
       <c r="D19" s="160"/>
       <c r="E19" s="114"/>
       <c r="F19" s="115"/>
@@ -6948,6 +6960,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -6958,12 +6976,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7270,11 +7282,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7584,7 +7596,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="17" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="7"/>
@@ -7601,7 +7613,7 @@
         <v>456</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -7615,7 +7627,7 @@
         <v>458</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -7629,7 +7641,7 @@
         <v>460</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -7643,7 +7655,7 @@
         <v>462</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -7657,7 +7669,7 @@
         <v>464</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -7671,7 +7683,7 @@
         <v>466</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -7708,7 +7720,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="17" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="87"/>
@@ -7725,7 +7737,7 @@
         <v>456</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -7739,7 +7751,7 @@
         <v>458</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -7753,7 +7765,7 @@
         <v>460</v>
       </c>
       <c r="D34" s="87" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -7767,7 +7779,7 @@
         <v>462</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -7781,7 +7793,7 @@
         <v>464</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -7795,7 +7807,7 @@
         <v>466</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -7832,7 +7844,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="17" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="87"/>
@@ -7849,7 +7861,7 @@
         <v>456</v>
       </c>
       <c r="D41" s="87" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -7863,7 +7875,7 @@
         <v>458</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -7877,7 +7889,7 @@
         <v>460</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -7891,7 +7903,7 @@
         <v>462</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -7905,7 +7917,7 @@
         <v>464</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -7919,7 +7931,7 @@
         <v>466</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -7955,7 +7967,9 @@
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="17"/>
+      <c r="A49" s="17" t="s">
+        <v>477</v>
+      </c>
       <c r="B49" s="14"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -7967,8 +7981,12 @@
     <row r="50" spans="1:8">
       <c r="A50" s="17"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="C50" s="87" t="s">
+        <v>456</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>478</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -7977,8 +7995,12 @@
     <row r="51" spans="1:8">
       <c r="A51" s="17"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="87" t="s">
+        <v>458</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>479</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -7987,8 +8009,12 @@
     <row r="52" spans="1:8">
       <c r="A52" s="17"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="87" t="s">
+        <v>460</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>480</v>
+      </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -7997,8 +8023,12 @@
     <row r="53" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="C53" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>481</v>
+      </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -8007,12 +8037,58 @@
     <row r="54" spans="1:8">
       <c r="A54" s="17"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="C54" s="87" t="s">
+        <v>464</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>482</v>
+      </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>483</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="87" t="s">
+        <v>468</v>
+      </c>
+      <c r="D56" s="87" t="s">
+        <v>452</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="87" t="s">
+        <v>469</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>454</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/my1stProject/apb_subsystem/apb_subsystem.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsystem.xlsx
@@ -1,52 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\git\hello-world\my1stProject\apb_subsystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
     <sheet name="Parameters" sheetId="11" r:id="rId2"/>
-    <sheet name="Views" sheetId="17" r:id="rId3"/>
-    <sheet name="Enumeration " sheetId="12" r:id="rId4"/>
-    <sheet name="IOport" sheetId="10" r:id="rId5"/>
-    <sheet name="Register" sheetId="15" r:id="rId6"/>
-    <sheet name="Electrical" sheetId="18" r:id="rId7"/>
-    <sheet name="Physical" sheetId="19" r:id="rId8"/>
-    <sheet name="Interfaces " sheetId="13" r:id="rId9"/>
-    <sheet name="ids_template" sheetId="20" r:id="rId10"/>
+    <sheet name="IOport" sheetId="10" r:id="rId3"/>
+    <sheet name="Interfaces" sheetId="13" r:id="rId4"/>
+    <sheet name="Register" sheetId="15" r:id="rId5"/>
+    <sheet name="Electrical" sheetId="18" r:id="rId6"/>
+    <sheet name="Physical" sheetId="19" r:id="rId7"/>
+    <sheet name="Enumeration " sheetId="12" r:id="rId8"/>
+    <sheet name="Views" sheetId="17" r:id="rId9"/>
+    <sheet name="ids_template" sheetId="21" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="analog_i" localSheetId="7">#REF!</definedName>
+    <definedName name="analog_i" localSheetId="0">#REF!</definedName>
     <definedName name="analog_i" localSheetId="3">#REF!</definedName>
-    <definedName name="analog_i" localSheetId="0">#REF!</definedName>
-    <definedName name="analog_i" localSheetId="8">#REF!</definedName>
-    <definedName name="analog_i" localSheetId="4">#REF!</definedName>
+    <definedName name="analog_i" localSheetId="2">#REF!</definedName>
     <definedName name="analog_i" localSheetId="1">#REF!</definedName>
     <definedName name="analog_i">#REF!</definedName>
+    <definedName name="analog_v" localSheetId="7">#REF!</definedName>
+    <definedName name="analog_v" localSheetId="0">#REF!</definedName>
     <definedName name="analog_v" localSheetId="3">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="0">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="8">#REF!</definedName>
-    <definedName name="analog_v" localSheetId="4">#REF!</definedName>
+    <definedName name="analog_v" localSheetId="2">#REF!</definedName>
     <definedName name="analog_v" localSheetId="1">#REF!</definedName>
     <definedName name="analog_v">#REF!</definedName>
+    <definedName name="digital" localSheetId="7">#REF!</definedName>
+    <definedName name="digital" localSheetId="0">#REF!</definedName>
     <definedName name="digital" localSheetId="3">#REF!</definedName>
-    <definedName name="digital" localSheetId="0">#REF!</definedName>
-    <definedName name="digital" localSheetId="8">#REF!</definedName>
-    <definedName name="digital" localSheetId="4">#REF!</definedName>
+    <definedName name="digital" localSheetId="2">#REF!</definedName>
     <definedName name="digital" localSheetId="1">#REF!</definedName>
     <definedName name="digital">#REF!</definedName>
+    <definedName name="vsupply" localSheetId="7">#REF!</definedName>
+    <definedName name="vsupply" localSheetId="0">#REF!</definedName>
     <definedName name="vsupply" localSheetId="3">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="0">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="8">#REF!</definedName>
-    <definedName name="vsupply" localSheetId="4">#REF!</definedName>
+    <definedName name="vsupply" localSheetId="2">#REF!</definedName>
     <definedName name="vsupply" localSheetId="1">#REF!</definedName>
     <definedName name="vsupply">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -59,7 +64,7 @@
     <author>shashank</author>
   </authors>
   <commentList>
-    <comment ref="D27" authorId="0">
+    <comment ref="D27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0">
+    <comment ref="D41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D163" authorId="0">
+    <comment ref="D175" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0">
+    <comment ref="D176" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D165" authorId="0">
+    <comment ref="D177" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D166" authorId="0">
+    <comment ref="D178" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="535">
   <si>
     <t>Component Name</t>
   </si>
@@ -855,9 +860,6 @@
     <t>$pc_y</t>
   </si>
   <si>
-    <t>AMS Discipline</t>
-  </si>
-  <si>
     <t>$ams_decsipline</t>
   </si>
   <si>
@@ -1161,9 +1163,6 @@
     <t>$drefpath</t>
   </si>
   <si>
-    <t>Specification Type</t>
-  </si>
-  <si>
     <t>default_value1</t>
   </si>
   <si>
@@ -1413,14 +1412,329 @@
     <t>This sheet describe all the parameters needed for this component</t>
   </si>
   <si>
-    <t>chip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block  </t>
+    <t>width</t>
+  </si>
+  <si>
+    <t>apbSubSystem</t>
+  </si>
+  <si>
+    <t>spiritconsortium.org</t>
+  </si>
+  <si>
+    <t>Leon2RTL</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>Interrupt_IRL</t>
+  </si>
+  <si>
+    <t>IRQVEC</t>
+  </si>
+  <si>
+    <t>Interrupt_IRQVEC</t>
+  </si>
+  <si>
+    <t>INTack</t>
+  </si>
+  <si>
+    <t>Interrupt_INTack</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB</t>
+  </si>
+  <si>
+    <t>HSELx</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hsel</t>
+  </si>
+  <si>
+    <t>HREADYOUT</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hready_resp</t>
+  </si>
+  <si>
+    <t>HRDATA</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hrdata</t>
+  </si>
+  <si>
+    <t>HPROT</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hprot</t>
+  </si>
+  <si>
+    <t>HTRANS</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_htrans</t>
+  </si>
+  <si>
+    <t>HSIZE</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hsize</t>
+  </si>
+  <si>
+    <t>HREADY</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hready</t>
+  </si>
+  <si>
+    <t>HWRITE</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hwrite</t>
+  </si>
+  <si>
+    <t>HBURST</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hburst</t>
+  </si>
+  <si>
+    <t>HADDR</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_haddr</t>
+  </si>
+  <si>
+    <t>HRESP</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hresp</t>
+  </si>
+  <si>
+    <t>HWDATA</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hwdata</t>
+  </si>
+  <si>
+    <t>HCLK</t>
+  </si>
+  <si>
+    <t>clk</t>
+  </si>
+  <si>
+    <t>HRESETn</t>
+  </si>
+  <si>
+    <t>rst_an</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5</t>
+  </si>
+  <si>
+    <t>PADDR</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_paddr</t>
+  </si>
+  <si>
+    <t>PSELx</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_psel</t>
+  </si>
+  <si>
+    <t>PWRITE</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_pwrite</t>
+  </si>
+  <si>
+    <t>PWDATA</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_pwdata</t>
+  </si>
+  <si>
+    <t>PENABLE</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_penable</t>
+  </si>
+  <si>
+    <t>PRDATA</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_prdata</t>
+  </si>
+  <si>
+    <t>PCLK</t>
+  </si>
+  <si>
+    <t>PRESETn</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_paddr</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_psel</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_pwrite</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_pwdata</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_penable</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_prdata</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_paddr</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_psel</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_pwrite</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_pwdata</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_penable</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_prdata</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Interrupt_IRQVEC[3:0]</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>Interrupt_IRL[3:0]</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_haddr[31:0]</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hburst[2:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_penable</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_psel</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_pwrite</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_pwdata[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_paddr[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_prdata[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv5_pwdata[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_paddr[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv7_prdata[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_pwdata[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_paddr[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv6_prdata[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_pwdata[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_paddr[31:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_prdata[31:0]</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hresp[1:0]</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hrdata[31:0]</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hwdata[31:0]</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_htrans[1:0]</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hsize[2:0]</t>
+  </si>
+  <si>
+    <t>ex_ambaAHB_hprot[3:0]</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_paddr</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_pwdata</t>
+  </si>
+  <si>
+    <t>i_apbbus_slv4_prdata</t>
+  </si>
+  <si>
+    <t>Gopal</t>
+  </si>
+  <si>
+    <t>Gopal@agnisys.com</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>spiritconsortium.org,busdef.leon2,IntProc_rtl,v1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block  </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">register </t>
+      <t xml:space="preserve">Register </t>
     </r>
     <r>
       <rPr>
@@ -1434,422 +1748,173 @@
     </r>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">field default  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">field description  </t>
-  </si>
-  <si>
-    <t>offset</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>sheet name</t>
-  </si>
-  <si>
-    <t>define description</t>
-  </si>
-  <si>
-    <t>enum name</t>
-  </si>
-  <si>
-    <t>enum value</t>
-  </si>
-  <si>
-    <t>mnemonic name</t>
-  </si>
-  <si>
-    <t>enum description</t>
-  </si>
-  <si>
-    <t>Spec Type</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>busInterfaceRef</t>
-  </si>
-  <si>
-    <t>businterface</t>
-  </si>
-  <si>
-    <t>type or connect to</t>
-  </si>
-  <si>
-    <t>physical name</t>
-  </si>
-  <si>
-    <t>logical name</t>
-  </si>
-  <si>
-    <t>description_intrf</t>
-  </si>
-  <si>
-    <t>baseAddresses or range</t>
-  </si>
-  <si>
-    <t>remapAddressName</t>
-  </si>
-  <si>
-    <t>remapAddressValue</t>
-  </si>
-  <si>
-    <t>Library Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>i_Bus</t>
-  </si>
-  <si>
-    <t>busProperties</t>
-  </si>
-  <si>
-    <t>Descr</t>
-  </si>
-  <si>
-    <t>t_Bus</t>
-  </si>
-  <si>
-    <t>SInitiator</t>
-  </si>
-  <si>
-    <t>i_Signal</t>
-  </si>
-  <si>
-    <t>signalProperties</t>
-  </si>
-  <si>
-    <t>t_Signal</t>
-  </si>
-  <si>
-    <t>singnalDesc</t>
-  </si>
-  <si>
-    <t>apbSubSystem</t>
-  </si>
-  <si>
-    <t>spiritconsortium.org</t>
-  </si>
-  <si>
-    <t>Leon2RTL</t>
-  </si>
-  <si>
-    <t>Interrupt</t>
-  </si>
-  <si>
-    <t>IRL</t>
-  </si>
-  <si>
-    <t>Interrupt_IRL</t>
-  </si>
-  <si>
-    <t>IRQVEC</t>
-  </si>
-  <si>
-    <t>Interrupt_IRQVEC</t>
-  </si>
-  <si>
-    <t>INTack</t>
-  </si>
-  <si>
-    <t>Interrupt_INTack</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB</t>
-  </si>
-  <si>
-    <t>HSELx</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hsel</t>
-  </si>
-  <si>
-    <t>HREADYOUT</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hready_resp</t>
-  </si>
-  <si>
-    <t>HRDATA</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hrdata</t>
-  </si>
-  <si>
-    <t>HPROT</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hprot</t>
-  </si>
-  <si>
-    <t>HTRANS</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_htrans</t>
-  </si>
-  <si>
-    <t>HSIZE</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hsize</t>
-  </si>
-  <si>
-    <t>HREADY</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hready</t>
-  </si>
-  <si>
-    <t>HWRITE</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hwrite</t>
-  </si>
-  <si>
-    <t>HBURST</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hburst</t>
-  </si>
-  <si>
-    <t>HADDR</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_haddr</t>
-  </si>
-  <si>
-    <t>HRESP</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hresp</t>
-  </si>
-  <si>
-    <t>HWDATA</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hwdata</t>
-  </si>
-  <si>
-    <t>HCLK</t>
-  </si>
-  <si>
-    <t>clk</t>
-  </si>
-  <si>
-    <t>HRESETn</t>
-  </si>
-  <si>
-    <t>rst_an</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5</t>
-  </si>
-  <si>
-    <t>PADDR</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_paddr</t>
-  </si>
-  <si>
-    <t>PSELx</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_psel</t>
-  </si>
-  <si>
-    <t>PWRITE</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_pwrite</t>
-  </si>
-  <si>
-    <t>PWDATA</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_pwdata</t>
-  </si>
-  <si>
-    <t>PENABLE</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_penable</t>
-  </si>
-  <si>
-    <t>PRDATA</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_prdata</t>
-  </si>
-  <si>
-    <t>PCLK</t>
-  </si>
-  <si>
-    <t>PRESETn</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_paddr</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_psel</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_pwrite</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_pwdata</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_penable</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_prdata</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_paddr</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_psel</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_pwrite</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_pwdata</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_penable</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_prdata</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>Interrupt_IRQVEC[3:0]</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>Interrupt_IRL[3:0]</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_haddr[31:0]</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hburst[2:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_penable</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_psel</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_pwrite</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_pwdata[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_paddr[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_prdata[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv5_pwdata[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_paddr[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv7_prdata[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_pwdata[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_paddr[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv6_prdata[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_pwdata[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_paddr[31:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_prdata[31:0]</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hresp[1:0]</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hrdata[31:0]</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hwdata[31:0]</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_htrans[1:0]</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hsize[2:0]</t>
-  </si>
-  <si>
-    <t>ex_ambaAHB_hprot[3:0]</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_paddr</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_pwdata</t>
-  </si>
-  <si>
-    <t>i_apbbus_slv4_prdata</t>
+    <t xml:space="preserve">Field  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sw access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field default  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hw access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field description  </t>
+  </si>
+  <si>
+    <t>Sheet name</t>
+  </si>
+  <si>
+    <t>BusInterfaceRef</t>
+  </si>
+  <si>
+    <t>BaseAddresses_or_range</t>
+  </si>
+  <si>
+    <t>BusInterfaceType</t>
+  </si>
+  <si>
+    <t>$bus_interface_type</t>
+  </si>
+  <si>
+    <t>RemapDescription</t>
+  </si>
+  <si>
+    <t>$remapdesc</t>
+  </si>
+  <si>
+    <t>Comp Name</t>
+  </si>
+  <si>
+    <t>Instance Description</t>
+  </si>
+  <si>
+    <t>Instance Ref</t>
+  </si>
+  <si>
+    <t>I_Bus</t>
+  </si>
+  <si>
+    <t>BusProperties</t>
+  </si>
+  <si>
+    <t>Bus connection  Desc</t>
+  </si>
+  <si>
+    <t>T_Bus</t>
+  </si>
+  <si>
+    <t>Sinitiator</t>
+  </si>
+  <si>
+    <t>I_Signal</t>
+  </si>
+  <si>
+    <t>SignalProperties</t>
+  </si>
+  <si>
+    <t>T_Signal</t>
+  </si>
+  <si>
+    <t>Signal connections Desc</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>AddressSpaces</t>
+  </si>
+  <si>
+    <t>addressSpace</t>
+  </si>
+  <si>
+    <t>$address_space</t>
+  </si>
+  <si>
+    <t>localMemorymap</t>
+  </si>
+  <si>
+    <t>$local_memorymap</t>
+  </si>
+  <si>
+    <t>addressBlock</t>
+  </si>
+  <si>
+    <t>$address_block</t>
+  </si>
+  <si>
+    <t>addressOffset</t>
+  </si>
+  <si>
+    <t>$address_offset</t>
+  </si>
+  <si>
+    <t>baseAddress</t>
+  </si>
+  <si>
+    <t>$base_address</t>
+  </si>
+  <si>
+    <t>addressUnit</t>
+  </si>
+  <si>
+    <t>$address_unit</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>$range</t>
+  </si>
+  <si>
+    <t>$width</t>
+  </si>
+  <si>
+    <t>addressSpaceDescription</t>
+  </si>
+  <si>
+    <t>$address_description</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>slave</t>
+  </si>
+  <si>
+    <t>amba.com,AMBA2,AHB_rtl,r2p0_6</t>
+  </si>
+  <si>
+    <t>mirroredSlave</t>
+  </si>
+  <si>
+    <t>amba.com,AMBA2,APB_rtl,r2p0_4</t>
+  </si>
+  <si>
+    <t>{default=0}</t>
+  </si>
+  <si>
+    <t>apb_subsustem_design_arch.xlsx</t>
+  </si>
+  <si>
+    <t>spec_type</t>
+  </si>
+  <si>
+    <t>ams_discipline</t>
+  </si>
+  <si>
+    <t>design_apbSubSystem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2069,7 +2134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2626,12 +2691,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2811,7 +2902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
@@ -2875,12 +2965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2894,11 +2978,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2949,10 +3043,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3020,12 +3114,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3293,22 +3436,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
@@ -3316,148 +3459,148 @@
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="146" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="144"/>
-      <c r="B2" s="145"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1"/>
-    <row r="4" spans="1:11" ht="29.25" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="145" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="149" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="29.25" thickBot="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="96" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="96" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29.25" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="96" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="96" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="29.25" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="96">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29.25" thickBot="1">
+    <row r="16" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
     </row>
-    <row r="19" spans="1:2" ht="29.25" thickBot="1">
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="89"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="90"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="90"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="91"/>
+    </row>
+    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="89"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="90"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="90"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B23" s="91"/>
-    </row>
-    <row r="25" spans="1:2" ht="29.25" thickBot="1">
-      <c r="A25" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="107"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B28" s="108"/>
-    </row>
-    <row r="29" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="106"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="107"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
     </row>
-    <row r="31" spans="1:2" ht="29.25" thickBot="1">
+    <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="92"/>
     </row>
-    <row r="34" spans="1:7" ht="29.25" thickBot="1">
+    <row r="34" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>274</v>
-      </c>
       <c r="F35" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G35" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="131" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -3465,7 +3608,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3473,7 +3616,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3481,7 +3624,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3489,7 +3632,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="100"/>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
@@ -3497,32 +3640,32 @@
       <c r="F40" s="101"/>
       <c r="G40" s="102"/>
     </row>
-    <row r="43" spans="1:7" ht="29.25" thickBot="1">
+    <row r="43" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>274</v>
-      </c>
       <c r="F44" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G44" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="131" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3530,7 +3673,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3538,7 +3681,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3546,7 +3689,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -3554,7 +3697,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -3562,30 +3705,34 @@
       <c r="F49" s="101"/>
       <c r="G49" s="102"/>
     </row>
-    <row r="52" spans="1:7" ht="29.25" thickBot="1">
+    <row r="52" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="C53" s="132" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B54" s="105"/>
-      <c r="C54" s="106"/>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="139" t="s">
+        <v>473</v>
+      </c>
+      <c r="C54" s="138" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="79"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="79"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="79"/>
     </row>
   </sheetData>
@@ -3593,20 +3740,23 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:K1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C54" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
@@ -3616,7 +3766,7 @@
     <col min="6" max="6" width="93.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
@@ -3633,60 +3783,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" s="30" customFormat="1">
+    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" s="30" customFormat="1">
+    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="174"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1">
+    <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="174"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="177"/>
       <c r="F6" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="30" customFormat="1">
+    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="172"/>
-      <c r="E7" s="174"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1">
+    <row r="8" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="38" t="s">
         <v>27</v>
@@ -3694,27 +3844,27 @@
       <c r="C8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="172"/>
-      <c r="E8" s="174"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="177"/>
       <c r="F8" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="40" customFormat="1">
+    <row r="9" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="38" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="174"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="40" customFormat="1">
+    <row r="10" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="38" t="s">
         <v>32</v>
@@ -3722,13 +3872,13 @@
       <c r="C10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="172"/>
-      <c r="E10" s="174"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="177"/>
       <c r="F10" s="36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="40" customFormat="1">
+    <row r="11" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
         <v>35</v>
@@ -3736,13 +3886,13 @@
       <c r="C11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="172"/>
-      <c r="E11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="177"/>
       <c r="F11" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="34" t="s">
         <v>38</v>
@@ -3750,65 +3900,65 @@
       <c r="C12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="172"/>
-      <c r="E12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="177"/>
       <c r="F12" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="174"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="177"/>
       <c r="F13" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="172"/>
-      <c r="E15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="177"/>
       <c r="F15" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="174"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="177"/>
       <c r="F16" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="34" t="s">
         <v>52</v>
@@ -3816,13 +3966,13 @@
       <c r="C17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="177"/>
       <c r="F17" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="34" t="s">
         <v>55</v>
@@ -3830,13 +3980,13 @@
       <c r="C18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="174"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="177"/>
       <c r="F18" s="46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="34" t="s">
         <v>58</v>
@@ -3844,11 +3994,11 @@
       <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="177"/>
       <c r="F19" s="46"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="34" t="s">
         <v>60</v>
@@ -3856,40 +4006,40 @@
       <c r="C20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="174"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="177"/>
       <c r="F20" s="46"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="174"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="D21" s="175"/>
+      <c r="E21" s="177"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="49"/>
       <c r="C22" s="44"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="174"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="D22" s="175"/>
+      <c r="E22" s="177"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="43" t="s">
-        <v>377</v>
+        <v>480</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="177"/>
       <c r="F23" s="46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="50" t="s">
         <v>66</v>
@@ -3897,26 +4047,26 @@
       <c r="C24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="174"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="177"/>
       <c r="F24" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="172"/>
-      <c r="E25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="177"/>
       <c r="F25" s="46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="51" t="s">
         <v>72</v>
@@ -3924,13 +4074,13 @@
       <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="173"/>
-      <c r="E26" s="174"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="177"/>
       <c r="F26" s="46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
         <v>75</v>
       </c>
@@ -3940,12 +4090,12 @@
       <c r="D27" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="174"/>
+      <c r="E27" s="177"/>
       <c r="F27" s="46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="51" t="s">
         <v>79</v>
@@ -3953,11 +4103,11 @@
       <c r="C28" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="175"/>
-      <c r="E28" s="174"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="177"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="43" t="s">
         <v>81</v>
@@ -3965,25 +4115,25 @@
       <c r="C29" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="174"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="177"/>
       <c r="F29" s="46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="43" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="176"/>
-      <c r="E30" s="174"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="34" t="s">
         <v>85</v>
@@ -3991,13 +4141,13 @@
       <c r="C31" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="174"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="177"/>
       <c r="F31" s="46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="34" t="s">
         <v>88</v>
@@ -4005,11 +4155,11 @@
       <c r="C32" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="176"/>
-      <c r="E32" s="174"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="177"/>
       <c r="F32" s="46"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="34" t="s">
         <v>90</v>
@@ -4017,11 +4167,11 @@
       <c r="C33" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="176"/>
-      <c r="E33" s="174"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="177"/>
       <c r="F33" s="46"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="34" t="s">
         <v>92</v>
@@ -4029,11 +4179,11 @@
       <c r="C34" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="176"/>
-      <c r="E34" s="174"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="177"/>
       <c r="F34" s="46"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="51" t="s">
         <v>94</v>
@@ -4041,58 +4191,58 @@
       <c r="C35" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="176"/>
-      <c r="E35" s="174"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="177"/>
       <c r="F35" s="46"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="176"/>
-      <c r="E36" s="174"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="177"/>
       <c r="F36" s="46"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="51"/>
       <c r="C37" s="44"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="174"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="177"/>
       <c r="F37" s="46"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="43" t="s">
-        <v>379</v>
+        <v>481</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="176"/>
-      <c r="E38" s="174"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="177"/>
       <c r="F38" s="46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="43" t="s">
-        <v>380</v>
+        <v>482</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="177"/>
-      <c r="E39" s="174"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="177"/>
       <c r="F39" s="46" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="43" t="s">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>102</v>
@@ -4100,14 +4250,14 @@
       <c r="D40" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="174"/>
+      <c r="E40" s="177"/>
       <c r="F40" s="46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
-        <v>382</v>
+        <v>484</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>105</v>
@@ -4115,15 +4265,15 @@
       <c r="D41" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="174"/>
+      <c r="E41" s="177"/>
       <c r="F41" s="46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="43" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>107</v>
@@ -4131,197 +4281,197 @@
       <c r="D42" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="174"/>
+      <c r="E42" s="177"/>
       <c r="F42" s="46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="43" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="178"/>
-      <c r="E43" s="174"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="177"/>
       <c r="F43" s="46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="43" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="179"/>
-      <c r="E44" s="174"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="177"/>
       <c r="F44" s="46" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="179"/>
-      <c r="E45" s="174"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="177"/>
       <c r="F45" s="46"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="43"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="174"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="177"/>
       <c r="F46" s="46"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="179"/>
-      <c r="E47" s="174"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="177"/>
       <c r="F47" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="34" t="s">
         <v>120</v>
       </c>
       <c r="C48" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="179"/>
-      <c r="E48" s="174"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="D48" s="182"/>
+      <c r="E48" s="177"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="56"/>
       <c r="C49" s="55"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="174"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="D49" s="182"/>
+      <c r="E49" s="177"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="43" t="s">
         <v>122</v>
       </c>
       <c r="C50" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="179"/>
-      <c r="E50" s="174"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="177"/>
       <c r="F50" s="46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="43" t="s">
         <v>125</v>
       </c>
       <c r="C51" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="179"/>
-      <c r="E51" s="174"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="177"/>
       <c r="F51" s="46" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="43" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="179"/>
-      <c r="E52" s="174"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="177"/>
       <c r="F52" s="46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="43" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="179"/>
-      <c r="E53" s="174"/>
+      <c r="D53" s="182"/>
+      <c r="E53" s="177"/>
       <c r="F53" s="46" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="43" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="179"/>
-      <c r="E54" s="174"/>
+      <c r="D54" s="182"/>
+      <c r="E54" s="177"/>
       <c r="F54" s="46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="43" t="s">
         <v>137</v>
       </c>
       <c r="C55" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="179"/>
-      <c r="E55" s="174"/>
+      <c r="D55" s="182"/>
+      <c r="E55" s="177"/>
       <c r="F55" s="46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
         <v>140</v>
       </c>
       <c r="C56" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="179"/>
-      <c r="E56" s="174"/>
+      <c r="D56" s="182"/>
+      <c r="E56" s="177"/>
       <c r="F56" s="46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="43"/>
       <c r="C57" s="55"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="174"/>
+      <c r="D57" s="182"/>
+      <c r="E57" s="177"/>
       <c r="F57" s="46"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="43" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="C58" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="179"/>
-      <c r="E58" s="174"/>
+      <c r="D58" s="182"/>
+      <c r="E58" s="177"/>
       <c r="F58" s="46" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="43" t="s">
         <v>145</v>
@@ -4329,13 +4479,13 @@
       <c r="C59" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="179"/>
-      <c r="E59" s="174"/>
+      <c r="D59" s="182"/>
+      <c r="E59" s="177"/>
       <c r="F59" s="46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
       <c r="B60" s="43" t="s">
         <v>148</v>
@@ -4343,13 +4493,13 @@
       <c r="C60" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="179"/>
-      <c r="E60" s="174"/>
+      <c r="D60" s="182"/>
+      <c r="E60" s="177"/>
       <c r="F60" s="46" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
       <c r="B61" s="43" t="s">
         <v>151</v>
@@ -4357,13 +4507,13 @@
       <c r="C61" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="179"/>
-      <c r="E61" s="174"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="177"/>
       <c r="F61" s="46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
       <c r="B62" s="43" t="s">
         <v>154</v>
@@ -4371,13 +4521,13 @@
       <c r="C62" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="179"/>
-      <c r="E62" s="174"/>
+      <c r="D62" s="182"/>
+      <c r="E62" s="177"/>
       <c r="F62" s="46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="59"/>
       <c r="B63" s="43" t="s">
         <v>156</v>
@@ -4385,27 +4535,27 @@
       <c r="C63" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="179"/>
-      <c r="E63" s="174"/>
+      <c r="D63" s="182"/>
+      <c r="E63" s="177"/>
       <c r="F63" s="46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="43" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C64" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="179"/>
-      <c r="E64" s="174"/>
+      <c r="D64" s="182"/>
+      <c r="E64" s="177"/>
       <c r="F64" s="46" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="43" t="s">
         <v>161</v>
@@ -4413,13 +4563,13 @@
       <c r="C65" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="179"/>
-      <c r="E65" s="174"/>
+      <c r="D65" s="182"/>
+      <c r="E65" s="177"/>
       <c r="F65" s="46" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="59"/>
       <c r="B66" s="43" t="s">
         <v>164</v>
@@ -4427,13 +4577,13 @@
       <c r="C66" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="179"/>
-      <c r="E66" s="174"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="177"/>
       <c r="F66" s="46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="59"/>
       <c r="B67" s="43" t="s">
         <v>167</v>
@@ -4441,50 +4591,50 @@
       <c r="C67" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="179"/>
-      <c r="E67" s="174"/>
+      <c r="D67" s="182"/>
+      <c r="E67" s="177"/>
       <c r="F67" s="46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" s="43" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="179"/>
-      <c r="E68" s="174"/>
+      <c r="D68" s="182"/>
+      <c r="E68" s="177"/>
       <c r="F68" s="46" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" s="43" t="s">
         <v>173</v>
       </c>
       <c r="C69" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="140"/>
+      <c r="D69" s="143"/>
       <c r="E69" s="60"/>
       <c r="F69" s="46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" s="43" t="s">
         <v>176</v>
       </c>
       <c r="C70" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="140"/>
+      <c r="D70" s="143"/>
       <c r="E70" s="60"/>
       <c r="F70" s="46"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" s="43" t="s">
         <v>178</v>
       </c>
@@ -4497,136 +4647,136 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="63"/>
       <c r="C72" s="64"/>
       <c r="D72" s="65"/>
       <c r="E72" s="66"/>
       <c r="F72" s="46"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" s="63"/>
       <c r="C73" s="64"/>
       <c r="D73" s="65"/>
       <c r="E73" s="66"/>
       <c r="F73" s="46"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="63"/>
       <c r="C74" s="64"/>
       <c r="D74" s="65"/>
       <c r="E74" s="66"/>
       <c r="F74" s="46"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B75" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D75" s="65"/>
       <c r="E75" s="66"/>
       <c r="F75" s="46"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="76" t="s">
-        <v>386</v>
+        <v>5</v>
       </c>
       <c r="C76" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D76" s="65"/>
       <c r="E76" s="66"/>
       <c r="F76" s="46"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="78" t="s">
-        <v>387</v>
+        <v>487</v>
       </c>
       <c r="C77" s="77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="65"/>
       <c r="E77" s="66"/>
       <c r="F77" s="46"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="78" t="s">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="C78" s="77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" s="65"/>
       <c r="E78" s="66"/>
       <c r="F78" s="46"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="78"/>
       <c r="C79" s="77"/>
       <c r="D79" s="65"/>
       <c r="E79" s="66"/>
       <c r="F79" s="46"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="78" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="C80" s="77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="65"/>
       <c r="E80" s="66"/>
       <c r="F80" s="46"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="76" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="C81" s="77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="65"/>
       <c r="E81" s="66"/>
       <c r="F81" s="46"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="78" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="C82" s="77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="65"/>
       <c r="E82" s="66"/>
       <c r="F82" s="46"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="78" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="C83" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="65"/>
       <c r="E83" s="66"/>
       <c r="F83" s="46"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" s="63"/>
       <c r="C84" s="64"/>
       <c r="D84" s="65"/>
       <c r="E84" s="66"/>
       <c r="F84" s="46"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
         <v>181</v>
       </c>
@@ -4636,7 +4786,7 @@
       <c r="E85" s="66"/>
       <c r="F85" s="46"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" s="63" t="s">
         <v>9</v>
       </c>
@@ -4647,7 +4797,7 @@
       <c r="E86" s="66"/>
       <c r="F86" s="46"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" s="63" t="s">
         <v>183</v>
       </c>
@@ -4658,9 +4808,9 @@
       <c r="E87" s="66"/>
       <c r="F87" s="46"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="63" t="s">
-        <v>393</v>
+        <v>532</v>
       </c>
       <c r="C88" s="64" t="s">
         <v>185</v>
@@ -4669,7 +4819,7 @@
       <c r="E88" s="66"/>
       <c r="F88" s="46"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="63" t="s">
         <v>10</v>
       </c>
@@ -4680,7 +4830,7 @@
       <c r="E89" s="66"/>
       <c r="F89" s="46"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="63" t="s">
         <v>187</v>
       </c>
@@ -4691,38 +4841,38 @@
       <c r="E90" s="66"/>
       <c r="F90" s="46"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="C91" s="64" t="s">
         <v>189</v>
-      </c>
-      <c r="C91" s="64" t="s">
-        <v>190</v>
       </c>
       <c r="D91" s="65"/>
       <c r="E91" s="66"/>
       <c r="F91" s="46"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D92" s="65"/>
       <c r="E92" s="66"/>
       <c r="F92" s="46"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" s="63"/>
       <c r="C93" s="64"/>
       <c r="D93" s="65"/>
       <c r="E93" s="66"/>
       <c r="F93" s="46"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B94" s="63"/>
       <c r="C94" s="64"/>
@@ -4730,146 +4880,146 @@
       <c r="E94" s="66"/>
       <c r="F94" s="46"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="63" t="s">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="C95" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D95" s="65"/>
       <c r="E95" s="66"/>
       <c r="F95" s="46"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="64" t="s">
         <v>194</v>
-      </c>
-      <c r="C96" s="64" t="s">
-        <v>195</v>
       </c>
       <c r="D96" s="65"/>
       <c r="E96" s="66"/>
       <c r="F96" s="46"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="64" t="s">
         <v>196</v>
-      </c>
-      <c r="C97" s="64" t="s">
-        <v>197</v>
       </c>
       <c r="D97" s="65"/>
       <c r="E97" s="66"/>
       <c r="F97" s="46"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="64" t="s">
         <v>198</v>
-      </c>
-      <c r="C98" s="64" t="s">
-        <v>199</v>
       </c>
       <c r="D98" s="65"/>
       <c r="E98" s="66"/>
       <c r="F98" s="46"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B99" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="64" t="s">
         <v>200</v>
-      </c>
-      <c r="C99" s="64" t="s">
-        <v>201</v>
       </c>
       <c r="D99" s="65"/>
       <c r="E99" s="66"/>
       <c r="F99" s="46"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="64" t="s">
         <v>202</v>
-      </c>
-      <c r="C100" s="64" t="s">
-        <v>203</v>
       </c>
       <c r="D100" s="65"/>
       <c r="E100" s="66"/>
       <c r="F100" s="46"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="64" t="s">
         <v>204</v>
-      </c>
-      <c r="C101" s="64" t="s">
-        <v>205</v>
       </c>
       <c r="D101" s="65"/>
       <c r="E101" s="66"/>
       <c r="F101" s="46"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="64" t="s">
         <v>206</v>
-      </c>
-      <c r="C102" s="64" t="s">
-        <v>207</v>
       </c>
       <c r="D102" s="65"/>
       <c r="E102" s="66"/>
       <c r="F102" s="46"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="64" t="s">
         <v>208</v>
-      </c>
-      <c r="C103" s="64" t="s">
-        <v>209</v>
       </c>
       <c r="D103" s="65"/>
       <c r="E103" s="66"/>
       <c r="F103" s="46"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="64" t="s">
         <v>210</v>
-      </c>
-      <c r="C104" s="64" t="s">
-        <v>211</v>
       </c>
       <c r="D104" s="65"/>
       <c r="E104" s="66"/>
       <c r="F104" s="46"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="64" t="s">
         <v>212</v>
-      </c>
-      <c r="C105" s="64" t="s">
-        <v>213</v>
       </c>
       <c r="D105" s="65"/>
       <c r="E105" s="66"/>
       <c r="F105" s="46"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C106" s="64" t="s">
         <v>214</v>
-      </c>
-      <c r="C106" s="64" t="s">
-        <v>215</v>
       </c>
       <c r="D106" s="65"/>
       <c r="E106" s="66"/>
       <c r="F106" s="46"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" s="63"/>
       <c r="C107" s="64"/>
       <c r="D107" s="65"/>
       <c r="E107" s="66"/>
       <c r="F107" s="46"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
         <v>8</v>
       </c>
@@ -4877,33 +5027,33 @@
         <v>7</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D108" s="65"/>
       <c r="E108" s="66"/>
       <c r="F108" s="46"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="63" t="s">
-        <v>395</v>
+        <v>488</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D109" s="65"/>
       <c r="E109" s="66"/>
       <c r="F109" s="46"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" s="63"/>
       <c r="C110" s="64"/>
       <c r="D110" s="65"/>
       <c r="E110" s="66"/>
       <c r="F110" s="46"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" s="63"/>
       <c r="C111" s="64"/>
@@ -4911,636 +5061,767 @@
       <c r="E111" s="66"/>
       <c r="F111" s="46"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" s="63" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D112" s="65"/>
       <c r="E112" s="66"/>
       <c r="F112" s="46"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" s="63" t="s">
-        <v>397</v>
+        <v>265</v>
       </c>
       <c r="C113" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D113" s="65"/>
       <c r="E113" s="66"/>
       <c r="F113" s="46"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="63" t="s">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D114" s="65"/>
       <c r="E114" s="66"/>
       <c r="F114" s="46"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="63" t="s">
-        <v>399</v>
+        <v>313</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D115" s="65"/>
       <c r="E115" s="66"/>
       <c r="F115" s="46"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="63" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D116" s="65"/>
       <c r="E116" s="66"/>
       <c r="F116" s="46"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="63" t="s">
-        <v>401</v>
+        <v>489</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D117" s="65"/>
       <c r="E117" s="66"/>
       <c r="F117" s="46"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" s="63" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D118" s="65"/>
       <c r="E118" s="66"/>
       <c r="F118" s="46"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="63" t="s">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="C119" s="64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D119" s="65"/>
       <c r="E119" s="66"/>
       <c r="F119" s="46"/>
     </row>
-    <row r="120" spans="1:6">
-      <c r="B120" s="63"/>
-      <c r="C120" s="64"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="C120" s="64" t="s">
+        <v>491</v>
+      </c>
       <c r="D120" s="65"/>
       <c r="E120" s="66"/>
       <c r="F120" s="46"/>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="B121" s="63"/>
-      <c r="C121" s="64"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="C121" s="64" t="s">
+        <v>493</v>
+      </c>
       <c r="D121" s="65"/>
       <c r="E121" s="66"/>
       <c r="F121" s="46"/>
     </row>
-    <row r="122" spans="1:6">
-      <c r="B122" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="C122" s="64" t="s">
-        <v>337</v>
-      </c>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="63"/>
+      <c r="C122" s="64"/>
       <c r="D122" s="65"/>
       <c r="E122" s="66"/>
       <c r="F122" s="46"/>
     </row>
-    <row r="123" spans="1:6">
-      <c r="B123" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="C123" s="64" t="s">
-        <v>338</v>
-      </c>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B123" s="63"/>
+      <c r="C123" s="64"/>
       <c r="D123" s="65"/>
       <c r="E123" s="66"/>
       <c r="F123" s="46"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="63" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="C124" s="64" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D124" s="65"/>
       <c r="E124" s="66"/>
       <c r="F124" s="46"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" s="63" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C125" s="64" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D125" s="65"/>
       <c r="E125" s="66"/>
       <c r="F125" s="46"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="63" t="s">
-        <v>404</v>
+        <v>266</v>
       </c>
       <c r="C126" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D126" s="65"/>
       <c r="E126" s="66"/>
       <c r="F126" s="46"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" s="63" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="C127" s="64" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D127" s="65"/>
       <c r="E127" s="66"/>
       <c r="F127" s="46"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="63" t="s">
-        <v>344</v>
+        <v>494</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D128" s="65"/>
       <c r="E128" s="66"/>
       <c r="F128" s="46"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="63" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C129" s="64" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D129" s="65"/>
       <c r="E129" s="66"/>
       <c r="F129" s="46"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B130" s="63" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
       <c r="C130" s="64" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D130" s="65"/>
       <c r="E130" s="66"/>
       <c r="F130" s="46"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" s="63" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="C131" s="64" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D131" s="65"/>
       <c r="E131" s="66"/>
       <c r="F131" s="46"/>
     </row>
-    <row r="132" spans="1:6">
-      <c r="B132" s="63"/>
-      <c r="C132" s="64"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="C132" s="64" t="s">
+        <v>346</v>
+      </c>
       <c r="D132" s="65"/>
       <c r="E132" s="66"/>
       <c r="F132" s="46"/>
     </row>
-    <row r="133" spans="1:6">
-      <c r="B133" s="63"/>
-      <c r="C133" s="64"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="63" t="s">
+        <v>496</v>
+      </c>
+      <c r="C133" s="64" t="s">
+        <v>347</v>
+      </c>
       <c r="D133" s="65"/>
       <c r="E133" s="66"/>
       <c r="F133" s="46"/>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="42" t="s">
-        <v>350</v>
-      </c>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B134" s="63"/>
       <c r="C134" s="64"/>
       <c r="D134" s="65"/>
       <c r="E134" s="66"/>
       <c r="F134" s="46"/>
     </row>
-    <row r="135" spans="1:6">
-      <c r="B135" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="C135" s="64" t="s">
-        <v>352</v>
-      </c>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="63"/>
+      <c r="C135" s="64"/>
       <c r="D135" s="65"/>
       <c r="E135" s="66"/>
       <c r="F135" s="46"/>
     </row>
-    <row r="136" spans="1:6">
-      <c r="B136" s="63" t="s">
-        <v>407</v>
-      </c>
-      <c r="C136" s="64" t="s">
-        <v>353</v>
-      </c>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="B136" s="63"/>
+      <c r="C136" s="64"/>
       <c r="D136" s="65"/>
       <c r="E136" s="66"/>
       <c r="F136" s="46"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" s="63" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C137" s="64" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D137" s="65"/>
       <c r="E137" s="66"/>
       <c r="F137" s="46"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="63" t="s">
-        <v>408</v>
+        <v>497</v>
       </c>
       <c r="C138" s="64" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D138" s="65"/>
       <c r="E138" s="66"/>
       <c r="F138" s="46"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="63" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="C139" s="64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D139" s="65"/>
       <c r="E139" s="66"/>
       <c r="F139" s="46"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="63" t="s">
-        <v>410</v>
+        <v>498</v>
       </c>
       <c r="C140" s="64" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D140" s="65"/>
       <c r="E140" s="66"/>
       <c r="F140" s="46"/>
     </row>
-    <row r="141" spans="1:6">
-      <c r="B141" s="63"/>
-      <c r="C141" s="64"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="C141" s="64" t="s">
+        <v>355</v>
+      </c>
       <c r="D141" s="65"/>
       <c r="E141" s="66"/>
       <c r="F141" s="46"/>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="B142" s="63"/>
-      <c r="C142" s="64"/>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="C142" s="64" t="s">
+        <v>356</v>
+      </c>
       <c r="D142" s="65"/>
       <c r="E142" s="66"/>
       <c r="F142" s="46"/>
     </row>
-    <row r="143" spans="1:6">
-      <c r="B143" s="63" t="s">
-        <v>411</v>
-      </c>
-      <c r="C143" s="64" t="s">
-        <v>360</v>
-      </c>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="63"/>
+      <c r="C143" s="64"/>
       <c r="D143" s="65"/>
       <c r="E143" s="66"/>
       <c r="F143" s="46"/>
     </row>
-    <row r="144" spans="1:6">
-      <c r="B144" s="63" t="s">
-        <v>412</v>
-      </c>
-      <c r="C144" s="64" t="s">
-        <v>361</v>
-      </c>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B144" s="63"/>
+      <c r="C144" s="64"/>
       <c r="D144" s="65"/>
       <c r="E144" s="66"/>
       <c r="F144" s="46"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="63" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
       <c r="C145" s="64" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D145" s="65"/>
       <c r="E145" s="66"/>
       <c r="F145" s="46"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="63" t="s">
-        <v>413</v>
+        <v>502</v>
       </c>
       <c r="C146" s="64" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D146" s="65"/>
       <c r="E146" s="66"/>
       <c r="F146" s="46"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" s="63" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="C147" s="64" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D147" s="65"/>
       <c r="E147" s="66"/>
       <c r="F147" s="46"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="63" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="C148" s="64" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D148" s="65"/>
       <c r="E148" s="66"/>
       <c r="F148" s="46"/>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="B149" s="63"/>
-      <c r="C149" s="64"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="C149" s="64" t="s">
+        <v>363</v>
+      </c>
       <c r="D149" s="65"/>
       <c r="E149" s="66"/>
       <c r="F149" s="46"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="63" t="s">
-        <v>279</v>
+        <v>505</v>
       </c>
       <c r="C150" s="64" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="D150" s="65"/>
       <c r="E150" s="66"/>
       <c r="F150" s="46"/>
     </row>
-    <row r="151" spans="1:6">
-      <c r="B151" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="C151" s="64" t="s">
-        <v>282</v>
-      </c>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" s="63"/>
+      <c r="C151" s="64"/>
       <c r="D151" s="65"/>
       <c r="E151" s="66"/>
       <c r="F151" s="46"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="63" t="s">
-        <v>283</v>
+        <v>506</v>
       </c>
       <c r="C152" s="64" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D152" s="65"/>
       <c r="E152" s="66"/>
       <c r="F152" s="46"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" s="63" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C153" s="64" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D153" s="65"/>
       <c r="E153" s="66"/>
       <c r="F153" s="46"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" s="63" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C154" s="64" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D154" s="65"/>
       <c r="E154" s="66"/>
       <c r="F154" s="46"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B155" s="63" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C155" s="64" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D155" s="65"/>
       <c r="E155" s="66"/>
       <c r="F155" s="46"/>
     </row>
-    <row r="156" spans="1:6">
-      <c r="B156" s="63"/>
-      <c r="C156" s="64"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C156" s="64" t="s">
+        <v>287</v>
+      </c>
       <c r="D156" s="65"/>
       <c r="E156" s="66"/>
       <c r="F156" s="46"/>
     </row>
-    <row r="157" spans="1:6">
-      <c r="B157" s="63"/>
-      <c r="C157" s="64"/>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="C157" s="64" t="s">
+        <v>289</v>
+      </c>
       <c r="D157" s="65"/>
       <c r="E157" s="66"/>
       <c r="F157" s="46"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B158" s="63"/>
       <c r="C158" s="64"/>
       <c r="D158" s="65"/>
       <c r="E158" s="66"/>
       <c r="F158" s="46"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B159" s="63"/>
       <c r="C159" s="64"/>
       <c r="D159" s="65"/>
       <c r="E159" s="66"/>
       <c r="F159" s="46"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>507</v>
+      </c>
       <c r="B160" s="63"/>
       <c r="C160" s="64"/>
       <c r="D160" s="65"/>
       <c r="E160" s="66"/>
       <c r="F160" s="46"/>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="180" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="C161" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="D161" s="65"/>
+      <c r="E161" s="66"/>
+      <c r="F161" s="46"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="C162" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="D162" s="65"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="46"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="C163" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="D163" s="65"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="46"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="C164" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="D164" s="65"/>
+      <c r="E164" s="66"/>
+      <c r="F164" s="46"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="C165" s="64" t="s">
+        <v>517</v>
+      </c>
+      <c r="D165" s="65"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="46"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="63" t="s">
+        <v>518</v>
+      </c>
+      <c r="C166" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="D166" s="65"/>
+      <c r="E166" s="66"/>
+      <c r="F166" s="46"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="C167" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="D167" s="65"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="46"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="C168" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="D168" s="65"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="46"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="63" t="s">
+        <v>523</v>
+      </c>
+      <c r="C169" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="D169" s="65"/>
+      <c r="E169" s="66"/>
+      <c r="F169" s="46"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="63"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="65"/>
+      <c r="E170" s="66"/>
+      <c r="F170" s="46"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="63"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="66"/>
+      <c r="F171" s="46"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="63"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="65"/>
+      <c r="E172" s="66"/>
+      <c r="F172" s="46"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="183" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="184"/>
+      <c r="B175" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B162" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F162" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="181"/>
-      <c r="B163" s="34" t="s">
+      <c r="C175" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="C163" s="44" t="s">
+      <c r="D175" s="67"/>
+      <c r="E175" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="D163" s="67"/>
-      <c r="E163" s="67" t="s">
+      <c r="F175" s="46"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="184"/>
+      <c r="B176" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="F163" s="46"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="181"/>
-      <c r="B164" s="43" t="s">
+      <c r="C176" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="C164" s="44" t="s">
+      <c r="D176" s="67"/>
+      <c r="E176" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F176" s="46"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="184"/>
+      <c r="B177" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="D164" s="67"/>
-      <c r="E164" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="F164" s="46"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="181"/>
-      <c r="B165" s="34" t="s">
+      <c r="C177" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="C165" s="44" t="s">
+      <c r="D177" s="67"/>
+      <c r="E177" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F177" s="46"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="184"/>
+      <c r="B178" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="D165" s="67"/>
-      <c r="E165" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="F165" s="46"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="181"/>
-      <c r="B166" s="34" t="s">
+      <c r="C178" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="C166" s="44" t="s">
+      <c r="D178" s="67"/>
+      <c r="E178" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F178" s="46"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="68"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="68"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="68"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C183" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="D166" s="67"/>
-      <c r="E166" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="F166" s="46"/>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="68"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="68"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="68"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="C171" s="69" t="s">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D184" s="70" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="D172" s="70" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D185" s="70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="D173" s="70" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D186" s="70" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="D174" s="70" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D187" s="71" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="D175" s="71" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D188" s="36" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="D176" s="36" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D189" s="72"/>
+      <c r="E189" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="177" spans="4:5">
-      <c r="D177" s="72"/>
-      <c r="E177" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D190" s="73"/>
+      <c r="E190" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="178" spans="4:5">
-      <c r="D178" s="73"/>
-      <c r="E178" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D191" s="143"/>
+      <c r="E191" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5">
-      <c r="D179" s="140"/>
-      <c r="E179" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5549,7 +5830,7 @@
     <mergeCell ref="E5:E68"/>
     <mergeCell ref="D28:D39"/>
     <mergeCell ref="D43:D68"/>
-    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A174:A178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5558,15 +5839,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -5575,112 +5856,145 @@
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" thickBot="1">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="150" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B2" s="15" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="153" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="132" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="110" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="103"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="17"/>
+      <c r="E2" s="141" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="17"/>
+      <c r="E4" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <f>MATCH(TRUE,INDEX(ISBLANK(B7:B10),0,0),0)</f>
+        <v>4</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="17"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="17"/>
-      <c r="C7" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="7" t="b">
+        <f>ISBLANK(C8)</f>
+        <v>1</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="133"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="17"/>
+      <c r="E7" s="142"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>476</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="133"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="17"/>
+      <c r="E8" s="142"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="17"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="87"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="17"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="134"/>
+      <c r="E11" s="87"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12 E7">
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:E18">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E11">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5690,334 +6004,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F1"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="29.25" thickBot="1">
-      <c r="A1" s="148" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="150" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B2" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="132" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="110" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="103"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="17"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="29.25" thickBot="1">
-      <c r="A1" s="93" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="82" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="81" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="80"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="11"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -6027,480 +6022,486 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" thickBot="1">
-      <c r="A1" s="152" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="150" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="155" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="153" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="132" t="s">
+      <c r="D2" s="15" t="str">
+        <f>ids_template!B88</f>
+        <v>spec_type</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f>ids_template!B91</f>
+        <v>ams_discipline</v>
+      </c>
+      <c r="F2" s="131" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1">
+    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -6520,8 +6521,1047 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="149" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="133" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" s="134" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="144" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="110" t="s">
+        <v>525</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="103"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="C4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="C5" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="C6" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="C8" s="87" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="C9" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="C10" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="C11" s="87" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="87" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="87" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="87" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="87" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="87" t="s">
+        <v>411</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="87" t="s">
+        <v>418</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>450</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="87" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C31" s="87"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>417</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="87" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>421</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>423</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="87" t="s">
+        <v>424</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>425</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>412</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C40" s="87"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>429</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="87" t="s">
+        <v>418</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>431</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>432</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>433</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="87" t="s">
+        <v>424</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>434</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>412</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>436</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>437</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="87" t="s">
+        <v>418</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>438</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>439</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>440</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="87" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>441</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="D56" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>412</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F58" s="7"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F59" s="7"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F60" s="7"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F61" s="7"/>
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="7"/>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F63" s="7"/>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F64" s="7"/>
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="7"/>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F66" s="7"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F67" s="7"/>
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="21"/>
+      <c r="J68" s="22"/>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F69" s="7"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="7"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F71" s="7"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="7"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F74" s="7"/>
+      <c r="J74" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48 I39">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F68">
+      <formula1>"master,slave,system,mirroredMaster,mirroredSlave,mirroredSystem,monitor"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6529,7 +7569,7 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -6541,57 +7581,57 @@
     <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="148" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="146" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="157"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="136" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="151" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="149" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="133" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="133" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="D3" s="133" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="133" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="F3" s="133" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="136" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="136" t="s">
+      <c r="G3" s="133" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="H3" s="133" t="s">
         <v>324</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="I3" s="133" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="J3" s="133" t="s">
         <v>326</v>
       </c>
-      <c r="I3" s="136" t="s">
-        <v>327</v>
-      </c>
-      <c r="J3" s="136" t="s">
-        <v>328</v>
-      </c>
-      <c r="K3" s="136" t="s">
+      <c r="K3" s="133" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6605,8 +7645,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6614,7 +7654,7 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
@@ -6627,345 +7667,339 @@
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.25" thickBot="1">
-      <c r="A1" s="148" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="146" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-    </row>
-    <row r="2" spans="1:13" ht="30.75" thickBot="1">
-      <c r="B2" s="136" t="s">
+    <row r="1" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="151" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="136" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="136" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="136" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="136" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="136" t="s">
-        <v>210</v>
-      </c>
-      <c r="M2" s="138" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B3" s="158"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="118"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="118"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="118"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="118"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="124"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B9" s="158"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+    </row>
+    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="133" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="133" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="133" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="135" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="162"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="117"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="117"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="117"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="117"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="123"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="162"/>
       <c r="C9" s="92"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="124"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B10" s="158"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="113"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B11" s="158"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B12" s="159"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B13" s="159"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B14" s="159"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B15" s="159"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B16" s="159"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B17" s="159"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B18" s="159"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B19" s="159"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B20" s="117"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="123"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="162"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="112"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="162"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="161"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="116"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="116"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="116"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -6976,258 +8010,264 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A1" s="152" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="146" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-    </row>
-    <row r="3" spans="1:12" ht="33.75">
-      <c r="A3" s="129" t="s">
+    <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="155" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="128" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="82" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B5" s="82" t="s">
+      <c r="D5" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="E5" s="136" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="105"/>
+    </row>
+    <row r="8" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="128" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="82" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="168" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="139" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="106"/>
-    </row>
-    <row r="8" spans="1:12" ht="34.5" thickBot="1">
-      <c r="A8" s="129" t="s">
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="170"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="172"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="174"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="174"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="174"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="174"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="174"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="174"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="174"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="174"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="174"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="100"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="167"/>
+    </row>
+    <row r="22" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="128" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B9" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="167"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="9"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="169"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="11"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="171"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="11"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="171"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="11"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="171"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="11"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="171"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="11"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="171"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="11"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="171"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17" s="11"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="171"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="B18" s="11"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="171"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" s="11"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="171"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B20" s="100"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="164"/>
-    </row>
-    <row r="22" spans="1:12" ht="34.5" thickBot="1">
-      <c r="A22" s="129" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="E23" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="82" t="s">
-        <v>274</v>
-      </c>
       <c r="F23" s="82" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G23" s="82" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
       <c r="D24" s="98"/>
@@ -7235,7 +8275,7 @@
       <c r="F24" s="98"/>
       <c r="G24" s="99"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -7243,7 +8283,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -7251,7 +8291,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="100"/>
       <c r="C27" s="101"/>
       <c r="D27" s="101"/>
@@ -7280,826 +8320,336 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" thickBot="1">
-      <c r="A1" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="146" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="136" t="s">
-        <v>313</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="H2" s="137" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17"/>
-      <c r="C4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="19"/>
-      <c r="C5" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="17"/>
-      <c r="C6" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>425</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="17"/>
-      <c r="C8" s="87" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="17"/>
-      <c r="C9" s="87" t="s">
-        <v>429</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>430</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17"/>
-      <c r="C10" s="87" t="s">
-        <v>431</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>432</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="17"/>
-      <c r="C11" s="87" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>434</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="87" t="s">
-        <v>435</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>436</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="87" t="s">
-        <v>437</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>438</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="87" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>440</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="87" t="s">
-        <v>441</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>442</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="87" t="s">
-        <v>443</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="87" t="s">
-        <v>445</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>446</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="87" t="s">
-        <v>447</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>448</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="87" t="s">
-        <v>449</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>450</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="87" t="s">
-        <v>451</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="87" t="s">
-        <v>453</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>454</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="87" t="s">
-        <v>456</v>
-      </c>
-      <c r="D23" s="87" t="s">
-        <v>512</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="87" t="s">
-        <v>458</v>
-      </c>
-      <c r="D24" s="87" t="s">
-        <v>491</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="87" t="s">
-        <v>460</v>
-      </c>
-      <c r="D25" s="87" t="s">
-        <v>492</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="17"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="87" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" s="87" t="s">
-        <v>513</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8">
+    <row r="1" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="87" t="s">
-        <v>464</v>
-      </c>
-      <c r="D27" s="87" t="s">
-        <v>490</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="17"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="87" t="s">
-        <v>466</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>514</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>454</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="87" t="s">
-        <v>456</v>
-      </c>
-      <c r="D32" s="87" t="s">
-        <v>457</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="87" t="s">
-        <v>458</v>
-      </c>
-      <c r="D33" s="87" t="s">
-        <v>459</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="87" t="s">
-        <v>460</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>461</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="87" t="s">
-        <v>462</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>463</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="87" t="s">
-        <v>464</v>
-      </c>
-      <c r="D36" s="87" t="s">
-        <v>465</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="87" t="s">
-        <v>466</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>467</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="17"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>454</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="17"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="87" t="s">
-        <v>456</v>
-      </c>
-      <c r="D41" s="87" t="s">
-        <v>471</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="17"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="87" t="s">
-        <v>458</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="17"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="87" t="s">
-        <v>460</v>
-      </c>
-      <c r="D43" s="87" t="s">
-        <v>473</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="17"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="87" t="s">
-        <v>462</v>
-      </c>
-      <c r="D44" s="87" t="s">
-        <v>474</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="87" t="s">
-        <v>464</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="17"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="87" t="s">
-        <v>466</v>
-      </c>
-      <c r="D46" s="87" t="s">
-        <v>476</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="17"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D48" s="87" t="s">
-        <v>454</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="17"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="87" t="s">
-        <v>456</v>
-      </c>
-      <c r="D50" s="87" t="s">
-        <v>478</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="17"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="87" t="s">
-        <v>458</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>479</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="17"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="87" t="s">
-        <v>460</v>
-      </c>
-      <c r="D52" s="87" t="s">
-        <v>480</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="17"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="87" t="s">
-        <v>462</v>
-      </c>
-      <c r="D53" s="87" t="s">
-        <v>481</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="87" t="s">
-        <v>464</v>
-      </c>
-      <c r="D54" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="17"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="87" t="s">
-        <v>466</v>
-      </c>
-      <c r="D55" s="87" t="s">
-        <v>483</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="17"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="D56" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="17"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D57" s="87" t="s">
-        <v>454</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="18"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H39 H48">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="151" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="131" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="109" t="str">
+        <f>ids_template!B88</f>
+        <v>spec_type</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" s="110">
+        <v>3</v>
+      </c>
+      <c r="G3" s="185" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="str">
+        <f>ids_template!B91</f>
+        <v>ams_discipline</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/my1stProject/apb_subsystem/apb_subsystem.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsystem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\git\hello-world\my1stProject\apb_subsystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\Documents\SoCgit\hello-world\my1stProject\apb_subsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="521">
   <si>
     <t>Component Name</t>
   </si>
@@ -1085,9 +1085,6 @@
     <t>general</t>
   </si>
   <si>
-    <t>0x00000000</t>
-  </si>
-  <si>
     <t>VLNV</t>
   </si>
   <si>
@@ -1163,33 +1160,6 @@
     <t>$drefpath</t>
   </si>
   <si>
-    <t>default_value1</t>
-  </si>
-  <si>
-    <t>default_value2</t>
-  </si>
-  <si>
-    <t>default_example1</t>
-  </si>
-  <si>
-    <t>default_example2</t>
-  </si>
-  <si>
-    <t>0x00000001</t>
-  </si>
-  <si>
-    <t>0x0000005</t>
-  </si>
-  <si>
-    <t>0x0000003</t>
-  </si>
-  <si>
-    <t>any enums can be described as hierarchy shown here</t>
-  </si>
-  <si>
-    <t>default_address</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -1199,9 +1169,6 @@
     <t>Electrical Specification</t>
   </si>
   <si>
-    <t>example to show, how to write parameteres.</t>
-  </si>
-  <si>
     <t>Die Size / Aspect Ratio</t>
   </si>
   <si>
@@ -1716,15 +1683,6 @@
   </si>
   <si>
     <t>Gopal@agnisys.com</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>ddd</t>
   </si>
   <si>
     <t>spiritconsortium.org,busdef.leon2,IntProc_rtl,v1.0</t>
@@ -2994,6 +2952,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3043,10 +3002,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3114,7 +3073,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3460,25 +3418,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="149" t="s">
-        <v>365</v>
-      </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="150" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3489,34 +3447,34 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="96" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="96" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="7"/>
     </row>
@@ -3577,21 +3535,21 @@
     </row>
     <row r="34" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>213</v>
@@ -3642,21 +3600,21 @@
     </row>
     <row r="43" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>213</v>
@@ -3712,18 +3670,18 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="131" t="s">
         <v>275</v>
-      </c>
-      <c r="C53" s="131" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="139" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C54" s="138" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3804,8 +3762,8 @@
       <c r="C5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="175"/>
-      <c r="E5" s="177"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="36" t="s">
         <v>20</v>
       </c>
@@ -3817,8 +3775,8 @@
       <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="175"/>
-      <c r="E6" s="177"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="36" t="s">
         <v>23</v>
       </c>
@@ -3830,8 +3788,8 @@
       <c r="C7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="175"/>
-      <c r="E7" s="177"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="36" t="s">
         <v>26</v>
       </c>
@@ -3844,8 +3802,8 @@
       <c r="C8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="175"/>
-      <c r="E8" s="177"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="178"/>
       <c r="F8" s="36" t="s">
         <v>29</v>
       </c>
@@ -3853,13 +3811,13 @@
     <row r="9" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="38" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="175"/>
-      <c r="E9" s="177"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="36" t="s">
         <v>31</v>
       </c>
@@ -3872,8 +3830,8 @@
       <c r="C10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="175"/>
-      <c r="E10" s="177"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="178"/>
       <c r="F10" s="36" t="s">
         <v>34</v>
       </c>
@@ -3886,8 +3844,8 @@
       <c r="C11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="175"/>
-      <c r="E11" s="177"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="178"/>
       <c r="F11" s="41" t="s">
         <v>37</v>
       </c>
@@ -3900,21 +3858,21 @@
       <c r="C12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="175"/>
-      <c r="E12" s="177"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="178"/>
       <c r="F12" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="177"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="178"/>
       <c r="F13" s="36" t="s">
         <v>42</v>
       </c>
@@ -3926,8 +3884,8 @@
       <c r="C14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="177"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="178"/>
       <c r="F14" s="36" t="s">
         <v>45</v>
       </c>
@@ -3939,8 +3897,8 @@
       <c r="C15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="175"/>
-      <c r="E15" s="177"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="178"/>
       <c r="F15" s="36" t="s">
         <v>48</v>
       </c>
@@ -3952,8 +3910,8 @@
       <c r="C16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="177"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="178"/>
       <c r="F16" s="46" t="s">
         <v>51</v>
       </c>
@@ -3966,8 +3924,8 @@
       <c r="C17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="177"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="178"/>
       <c r="F17" s="46" t="s">
         <v>54</v>
       </c>
@@ -3980,8 +3938,8 @@
       <c r="C18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="177"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="178"/>
       <c r="F18" s="46" t="s">
         <v>57</v>
       </c>
@@ -3994,8 +3952,8 @@
       <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="175"/>
-      <c r="E19" s="177"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="178"/>
       <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4006,8 +3964,8 @@
       <c r="C20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="177"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="178"/>
       <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4017,24 +3975,24 @@
       <c r="C21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="175"/>
-      <c r="E21" s="177"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="178"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="49"/>
       <c r="C22" s="44"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="177"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="178"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="43" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="175"/>
-      <c r="E23" s="177"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="178"/>
       <c r="F23" s="46" t="s">
         <v>65</v>
       </c>
@@ -4047,8 +4005,8 @@
       <c r="C24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="175"/>
-      <c r="E24" s="177"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="178"/>
       <c r="F24" s="46" t="s">
         <v>68</v>
       </c>
@@ -4060,8 +4018,8 @@
       <c r="C25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="175"/>
-      <c r="E25" s="177"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="178"/>
       <c r="F25" s="46" t="s">
         <v>71</v>
       </c>
@@ -4074,8 +4032,8 @@
       <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="176"/>
-      <c r="E26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="178"/>
       <c r="F26" s="46" t="s">
         <v>74</v>
       </c>
@@ -4090,7 +4048,7 @@
       <c r="D27" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="177"/>
+      <c r="E27" s="178"/>
       <c r="F27" s="46" t="s">
         <v>78</v>
       </c>
@@ -4103,8 +4061,8 @@
       <c r="C28" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="177"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="178"/>
       <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4115,8 +4073,8 @@
       <c r="C29" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="177"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="178"/>
       <c r="F29" s="46" t="s">
         <v>83</v>
       </c>
@@ -4124,13 +4082,13 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="43" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="177"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="178"/>
       <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,8 +4099,8 @@
       <c r="C31" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="179"/>
-      <c r="E31" s="177"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="178"/>
       <c r="F31" s="46" t="s">
         <v>87</v>
       </c>
@@ -4155,8 +4113,8 @@
       <c r="C32" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="179"/>
-      <c r="E32" s="177"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="178"/>
       <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4167,8 +4125,8 @@
       <c r="C33" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="179"/>
-      <c r="E33" s="177"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="178"/>
       <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,8 +4137,8 @@
       <c r="C34" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="179"/>
-      <c r="E34" s="177"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="178"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4191,8 +4149,8 @@
       <c r="C35" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="179"/>
-      <c r="E35" s="177"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="178"/>
       <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,39 +4160,39 @@
       <c r="C36" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="179"/>
-      <c r="E36" s="177"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="178"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="51"/>
       <c r="C37" s="44"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="177"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="178"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="43" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="179"/>
-      <c r="E38" s="177"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="178"/>
       <c r="F38" s="46" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="43" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="180"/>
-      <c r="E39" s="177"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="178"/>
       <c r="F39" s="46" t="s">
         <v>101</v>
       </c>
@@ -4242,7 +4200,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="43" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>102</v>
@@ -4250,14 +4208,14 @@
       <c r="D40" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="177"/>
+      <c r="E40" s="178"/>
       <c r="F40" s="46" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>105</v>
@@ -4265,7 +4223,7 @@
       <c r="D41" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="177"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="46" t="s">
         <v>106</v>
       </c>
@@ -4273,7 +4231,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="43" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>107</v>
@@ -4281,20 +4239,20 @@
       <c r="D42" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="177"/>
+      <c r="E42" s="178"/>
       <c r="F42" s="46" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="43" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="181"/>
-      <c r="E43" s="177"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="178"/>
       <c r="F43" s="46" t="s">
         <v>111</v>
       </c>
@@ -4306,8 +4264,8 @@
       <c r="C44" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="182"/>
-      <c r="E44" s="177"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="178"/>
       <c r="F44" s="46" t="s">
         <v>114</v>
       </c>
@@ -4319,15 +4277,15 @@
       <c r="C45" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="182"/>
-      <c r="E45" s="177"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="178"/>
       <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="43"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="177"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="178"/>
       <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4337,8 +4295,8 @@
       <c r="C47" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="182"/>
-      <c r="E47" s="177"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="178"/>
       <c r="F47" s="46" t="s">
         <v>119</v>
       </c>
@@ -4350,14 +4308,14 @@
       <c r="C48" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="182"/>
-      <c r="E48" s="177"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="178"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="56"/>
       <c r="C49" s="55"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="177"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="178"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="43" t="s">
@@ -4366,8 +4324,8 @@
       <c r="C50" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="182"/>
-      <c r="E50" s="177"/>
+      <c r="D50" s="183"/>
+      <c r="E50" s="178"/>
       <c r="F50" s="46" t="s">
         <v>124</v>
       </c>
@@ -4379,8 +4337,8 @@
       <c r="C51" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="182"/>
-      <c r="E51" s="177"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="178"/>
       <c r="F51" s="46" t="s">
         <v>127</v>
       </c>
@@ -4392,8 +4350,8 @@
       <c r="C52" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="182"/>
-      <c r="E52" s="177"/>
+      <c r="D52" s="183"/>
+      <c r="E52" s="178"/>
       <c r="F52" s="46" t="s">
         <v>130</v>
       </c>
@@ -4405,8 +4363,8 @@
       <c r="C53" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="182"/>
-      <c r="E53" s="177"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="178"/>
       <c r="F53" s="46" t="s">
         <v>133</v>
       </c>
@@ -4418,8 +4376,8 @@
       <c r="C54" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="182"/>
-      <c r="E54" s="177"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="178"/>
       <c r="F54" s="46" t="s">
         <v>136</v>
       </c>
@@ -4431,8 +4389,8 @@
       <c r="C55" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="182"/>
-      <c r="E55" s="177"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="178"/>
       <c r="F55" s="46" t="s">
         <v>139</v>
       </c>
@@ -4444,8 +4402,8 @@
       <c r="C56" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="177"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="178"/>
       <c r="F56" s="46" t="s">
         <v>142</v>
       </c>
@@ -4453,20 +4411,20 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="43"/>
       <c r="C57" s="55"/>
-      <c r="D57" s="182"/>
-      <c r="E57" s="177"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="178"/>
       <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="43" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C58" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="182"/>
-      <c r="E58" s="177"/>
+      <c r="D58" s="183"/>
+      <c r="E58" s="178"/>
       <c r="F58" s="46" t="s">
         <v>144</v>
       </c>
@@ -4479,8 +4437,8 @@
       <c r="C59" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="182"/>
-      <c r="E59" s="177"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="178"/>
       <c r="F59" s="46" t="s">
         <v>147</v>
       </c>
@@ -4493,8 +4451,8 @@
       <c r="C60" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="182"/>
-      <c r="E60" s="177"/>
+      <c r="D60" s="183"/>
+      <c r="E60" s="178"/>
       <c r="F60" s="46" t="s">
         <v>150</v>
       </c>
@@ -4507,8 +4465,8 @@
       <c r="C61" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="182"/>
-      <c r="E61" s="177"/>
+      <c r="D61" s="183"/>
+      <c r="E61" s="178"/>
       <c r="F61" s="46" t="s">
         <v>153</v>
       </c>
@@ -4521,8 +4479,8 @@
       <c r="C62" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="182"/>
-      <c r="E62" s="177"/>
+      <c r="D62" s="183"/>
+      <c r="E62" s="178"/>
       <c r="F62" s="46" t="s">
         <v>153</v>
       </c>
@@ -4535,8 +4493,8 @@
       <c r="C63" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="182"/>
-      <c r="E63" s="177"/>
+      <c r="D63" s="183"/>
+      <c r="E63" s="178"/>
       <c r="F63" s="46" t="s">
         <v>158</v>
       </c>
@@ -4549,8 +4507,8 @@
       <c r="C64" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="182"/>
-      <c r="E64" s="177"/>
+      <c r="D64" s="183"/>
+      <c r="E64" s="178"/>
       <c r="F64" s="46" t="s">
         <v>160</v>
       </c>
@@ -4563,8 +4521,8 @@
       <c r="C65" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="182"/>
-      <c r="E65" s="177"/>
+      <c r="D65" s="183"/>
+      <c r="E65" s="178"/>
       <c r="F65" s="46" t="s">
         <v>163</v>
       </c>
@@ -4577,8 +4535,8 @@
       <c r="C66" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="182"/>
-      <c r="E66" s="177"/>
+      <c r="D66" s="183"/>
+      <c r="E66" s="178"/>
       <c r="F66" s="46" t="s">
         <v>166</v>
       </c>
@@ -4591,8 +4549,8 @@
       <c r="C67" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="182"/>
-      <c r="E67" s="177"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="178"/>
       <c r="F67" s="46" t="s">
         <v>169</v>
       </c>
@@ -4604,8 +4562,8 @@
       <c r="C68" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="182"/>
-      <c r="E68" s="177"/>
+      <c r="D68" s="183"/>
+      <c r="E68" s="178"/>
       <c r="F68" s="46" t="s">
         <v>172</v>
       </c>
@@ -4695,7 +4653,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="78" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C77" s="77" t="s">
         <v>236</v>
@@ -4706,7 +4664,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="78" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C78" s="77" t="s">
         <v>237</v>
@@ -4727,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="78" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C80" s="77" t="s">
         <v>238</v>
@@ -4738,7 +4696,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="76" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C81" s="77" t="s">
         <v>239</v>
@@ -4749,7 +4707,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="78" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C82" s="77" t="s">
         <v>240</v>
@@ -4760,7 +4718,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="78" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C83" s="77" t="s">
         <v>241</v>
@@ -4810,7 +4768,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="63" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="C88" s="64" t="s">
         <v>185</v>
@@ -4843,7 +4801,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="63" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>189</v>
@@ -4882,7 +4840,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="63" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C95" s="64" t="s">
         <v>192</v>
@@ -5003,7 +4961,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="63" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C106" s="64" t="s">
         <v>214</v>
@@ -5035,7 +4993,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="63" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C109" s="64" t="s">
         <v>249</v>
@@ -5063,7 +5021,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" s="63" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C112" s="64" t="s">
         <v>245</v>
@@ -5074,7 +5032,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C113" s="64" t="s">
         <v>246</v>
@@ -5085,7 +5043,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="63" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C114" s="64" t="s">
         <v>247</v>
@@ -5096,7 +5054,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="63" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C115" s="64" t="s">
         <v>248</v>
@@ -5107,7 +5065,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="63" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C116" s="64" t="s">
         <v>250</v>
@@ -5118,7 +5076,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="63" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C117" s="64" t="s">
         <v>251</v>
@@ -5129,7 +5087,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" s="63" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C118" s="64" t="s">
         <v>253</v>
@@ -5140,7 +5098,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="63" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C119" s="64" t="s">
         <v>252</v>
@@ -5151,10 +5109,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="63" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D120" s="65"/>
       <c r="E120" s="66"/>
@@ -5162,10 +5120,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" s="63" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D121" s="65"/>
       <c r="E121" s="66"/>
@@ -5180,7 +5138,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="42" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B123" s="63"/>
       <c r="C123" s="64"/>
@@ -5190,10 +5148,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="63" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C124" s="64" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D124" s="65"/>
       <c r="E124" s="66"/>
@@ -5201,10 +5159,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C125" s="64" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D125" s="65"/>
       <c r="E125" s="66"/>
@@ -5212,10 +5170,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C126" s="64" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D126" s="65"/>
       <c r="E126" s="66"/>
@@ -5223,10 +5181,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" s="63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C127" s="64" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D127" s="65"/>
       <c r="E127" s="66"/>
@@ -5234,10 +5192,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="63" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D128" s="65"/>
       <c r="E128" s="66"/>
@@ -5245,10 +5203,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="63" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C129" s="64" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D129" s="65"/>
       <c r="E129" s="66"/>
@@ -5256,10 +5214,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B130" s="63" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C130" s="64" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D130" s="65"/>
       <c r="E130" s="66"/>
@@ -5267,10 +5225,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" s="63" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C131" s="64" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D131" s="65"/>
       <c r="E131" s="66"/>
@@ -5278,10 +5236,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="63" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C132" s="64" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D132" s="65"/>
       <c r="E132" s="66"/>
@@ -5289,10 +5247,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="63" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C133" s="64" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D133" s="65"/>
       <c r="E133" s="66"/>
@@ -5314,7 +5272,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="42" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B136" s="63"/>
       <c r="C136" s="64"/>
@@ -5324,10 +5282,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" s="63" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C137" s="64" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D137" s="65"/>
       <c r="E137" s="66"/>
@@ -5335,10 +5293,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="63" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C138" s="64" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D138" s="65"/>
       <c r="E138" s="66"/>
@@ -5346,10 +5304,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="63" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C139" s="64" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D139" s="65"/>
       <c r="E139" s="66"/>
@@ -5357,10 +5315,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="63" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="C140" s="64" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D140" s="65"/>
       <c r="E140" s="66"/>
@@ -5368,10 +5326,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="63" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C141" s="64" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D141" s="65"/>
       <c r="E141" s="66"/>
@@ -5379,10 +5337,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="63" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C142" s="64" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D142" s="65"/>
       <c r="E142" s="66"/>
@@ -5397,7 +5355,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B144" s="63"/>
       <c r="C144" s="64"/>
@@ -5407,10 +5365,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="63" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C145" s="64" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D145" s="65"/>
       <c r="E145" s="66"/>
@@ -5418,10 +5376,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="63" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C146" s="64" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D146" s="65"/>
       <c r="E146" s="66"/>
@@ -5429,10 +5387,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" s="63" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C147" s="64" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D147" s="65"/>
       <c r="E147" s="66"/>
@@ -5440,10 +5398,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="63" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C148" s="64" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D148" s="65"/>
       <c r="E148" s="66"/>
@@ -5451,10 +5409,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="63" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C149" s="64" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D149" s="65"/>
       <c r="E149" s="66"/>
@@ -5462,10 +5420,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="63" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C150" s="64" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D150" s="65"/>
       <c r="E150" s="66"/>
@@ -5473,7 +5431,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B151" s="63"/>
       <c r="C151" s="64"/>
@@ -5483,10 +5441,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="63" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C152" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D152" s="65"/>
       <c r="E152" s="66"/>
@@ -5494,10 +5452,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C153" s="64" t="s">
         <v>280</v>
-      </c>
-      <c r="C153" s="64" t="s">
-        <v>281</v>
       </c>
       <c r="D153" s="65"/>
       <c r="E153" s="66"/>
@@ -5505,10 +5463,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" s="64" t="s">
         <v>282</v>
-      </c>
-      <c r="C154" s="64" t="s">
-        <v>283</v>
       </c>
       <c r="D154" s="65"/>
       <c r="E154" s="66"/>
@@ -5516,10 +5474,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B155" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="64" t="s">
         <v>284</v>
-      </c>
-      <c r="C155" s="64" t="s">
-        <v>285</v>
       </c>
       <c r="D155" s="65"/>
       <c r="E155" s="66"/>
@@ -5527,10 +5485,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B156" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="64" t="s">
         <v>286</v>
-      </c>
-      <c r="C156" s="64" t="s">
-        <v>287</v>
       </c>
       <c r="D156" s="65"/>
       <c r="E156" s="66"/>
@@ -5538,10 +5496,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B157" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="64" t="s">
         <v>288</v>
-      </c>
-      <c r="C157" s="64" t="s">
-        <v>289</v>
       </c>
       <c r="D157" s="65"/>
       <c r="E157" s="66"/>
@@ -5563,7 +5521,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B160" s="63"/>
       <c r="C160" s="64"/>
@@ -5573,10 +5531,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" s="63" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C161" s="64" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D161" s="65"/>
       <c r="E161" s="66"/>
@@ -5584,10 +5542,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="63" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="C162" s="64" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D162" s="65"/>
       <c r="E162" s="66"/>
@@ -5595,10 +5553,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" s="63" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="C163" s="64" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D163" s="65"/>
       <c r="E163" s="66"/>
@@ -5606,10 +5564,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B164" s="63" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="C164" s="64" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="D164" s="65"/>
       <c r="E164" s="66"/>
@@ -5617,10 +5575,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" s="63" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="C165" s="64" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D165" s="65"/>
       <c r="E165" s="66"/>
@@ -5628,10 +5586,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" s="63" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="C166" s="64" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D166" s="65"/>
       <c r="E166" s="66"/>
@@ -5639,10 +5597,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" s="63" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="C167" s="64" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D167" s="65"/>
       <c r="E167" s="66"/>
@@ -5650,10 +5608,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B168" s="63" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C168" s="64" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D168" s="65"/>
       <c r="E168" s="66"/>
@@ -5661,10 +5619,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="63" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D169" s="65"/>
       <c r="E169" s="66"/>
@@ -5692,7 +5650,7 @@
       <c r="F172" s="46"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="183" t="s">
+      <c r="A174" s="184" t="s">
         <v>215</v>
       </c>
       <c r="B174" s="23" t="s">
@@ -5712,7 +5670,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="184"/>
+      <c r="A175" s="185"/>
       <c r="B175" s="34" t="s">
         <v>216</v>
       </c>
@@ -5726,7 +5684,7 @@
       <c r="F175" s="46"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="184"/>
+      <c r="A176" s="185"/>
       <c r="B176" s="43" t="s">
         <v>219</v>
       </c>
@@ -5740,7 +5698,7 @@
       <c r="F176" s="46"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="184"/>
+      <c r="A177" s="185"/>
       <c r="B177" s="34" t="s">
         <v>221</v>
       </c>
@@ -5754,7 +5712,7 @@
       <c r="F177" s="46"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="184"/>
+      <c r="A178" s="185"/>
       <c r="B178" s="34" t="s">
         <v>223</v>
       </c>
@@ -5844,7 +5802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5857,14 +5815,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153" t="s">
-        <v>372</v>
-      </c>
-      <c r="D1" s="154"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="154" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="155"/>
       <c r="E1" s="137"/>
       <c r="F1" s="137"/>
       <c r="G1" s="137"/>
@@ -5884,7 +5842,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="141" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5897,21 +5855,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>302</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <f>MATCH(TRUE,INDEX(ISBLANK(B7:B10),0,0),0)</f>
-        <v>4</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -5923,28 +5872,19 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C7" s="7" t="b">
-        <f>ISBLANK(C8)</f>
-        <v>1</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="142"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>476</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="142"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>477</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -6008,8 +5948,8 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6023,16 +5963,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="153" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="154" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
@@ -6055,20 +5995,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6076,36 +6016,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="12" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="12" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6113,10 +6053,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -6124,10 +6064,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -6135,10 +6075,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -6146,10 +6086,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -6157,10 +6097,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -6168,10 +6108,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -6179,10 +6119,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6190,10 +6130,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -6201,10 +6141,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6212,10 +6152,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6223,10 +6163,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6234,10 +6174,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6245,10 +6185,10 @@
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6256,10 +6196,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6267,10 +6207,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6278,10 +6218,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -6289,10 +6229,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -6300,10 +6240,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -6311,10 +6251,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -6322,10 +6262,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -6333,10 +6273,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -6344,10 +6284,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -6355,10 +6295,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -6366,10 +6306,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -6377,10 +6317,10 @@
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -6388,10 +6328,10 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -6399,10 +6339,10 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -6410,10 +6350,10 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -6421,10 +6361,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -6432,10 +6372,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -6443,10 +6383,10 @@
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -6454,10 +6394,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -6465,10 +6405,10 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -6476,10 +6416,10 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -6487,10 +6427,10 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -6498,10 +6438,10 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -6526,8 +6466,8 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6549,59 +6489,59 @@
         <v>258</v>
       </c>
       <c r="B1" s="132"/>
-      <c r="C1" s="149" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
+      <c r="C1" s="150" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F2" s="144" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="I2" s="134" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J2" s="144" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="110" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6611,10 +6551,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6626,10 +6566,10 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="C5" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6641,10 +6581,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="C6" s="87" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6655,16 +6595,16 @@
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6674,10 +6614,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="C8" s="87" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6689,10 +6629,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="C9" s="87" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6704,10 +6644,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="C10" s="87" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -6719,10 +6659,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="C11" s="87" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6735,10 +6675,10 @@
       <c r="A12" s="17"/>
       <c r="B12" s="14"/>
       <c r="C12" s="87" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6751,10 +6691,10 @@
       <c r="A13" s="17"/>
       <c r="B13" s="14"/>
       <c r="C13" s="87" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6767,10 +6707,10 @@
       <c r="A14" s="17"/>
       <c r="B14" s="14"/>
       <c r="C14" s="87" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -6783,10 +6723,10 @@
       <c r="A15" s="17"/>
       <c r="B15" s="14"/>
       <c r="C15" s="87" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6799,10 +6739,10 @@
       <c r="A16" s="17"/>
       <c r="B16" s="14"/>
       <c r="C16" s="87" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -6815,10 +6755,10 @@
       <c r="A17" s="17"/>
       <c r="B17" s="14"/>
       <c r="C17" s="87" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -6831,10 +6771,10 @@
       <c r="A18" s="17"/>
       <c r="B18" s="14"/>
       <c r="C18" s="87" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -6847,10 +6787,10 @@
       <c r="A19" s="17"/>
       <c r="B19" s="14"/>
       <c r="C19" s="87" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -6863,10 +6803,10 @@
       <c r="A20" s="17"/>
       <c r="B20" s="14"/>
       <c r="C20" s="87" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -6879,10 +6819,10 @@
       <c r="A21" s="17"/>
       <c r="B21" s="14"/>
       <c r="C21" s="87" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -6893,16 +6833,16 @@
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6913,10 +6853,10 @@
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="87" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -6929,10 +6869,10 @@
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="87" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -6945,10 +6885,10 @@
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="87" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -6961,10 +6901,10 @@
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="87" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -6977,10 +6917,10 @@
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="87" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6993,10 +6933,10 @@
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="87" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -7009,10 +6949,10 @@
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="87" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -7025,10 +6965,10 @@
       <c r="A30" s="17"/>
       <c r="B30" s="14"/>
       <c r="C30" s="87" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -7039,16 +6979,16 @@
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C31" s="87"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -7059,10 +6999,10 @@
       <c r="A32" s="17"/>
       <c r="B32" s="14"/>
       <c r="C32" s="87" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -7075,10 +7015,10 @@
       <c r="A33" s="17"/>
       <c r="B33" s="14"/>
       <c r="C33" s="87" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -7091,10 +7031,10 @@
       <c r="A34" s="17"/>
       <c r="B34" s="14"/>
       <c r="C34" s="87" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D34" s="87" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -7107,10 +7047,10 @@
       <c r="A35" s="17"/>
       <c r="B35" s="14"/>
       <c r="C35" s="87" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -7123,10 +7063,10 @@
       <c r="A36" s="17"/>
       <c r="B36" s="14"/>
       <c r="C36" s="87" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -7139,10 +7079,10 @@
       <c r="A37" s="17"/>
       <c r="B37" s="14"/>
       <c r="C37" s="87" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -7155,10 +7095,10 @@
       <c r="A38" s="17"/>
       <c r="B38" s="14"/>
       <c r="C38" s="87" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D38" s="87" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -7171,10 +7111,10 @@
       <c r="A39" s="17"/>
       <c r="B39" s="14"/>
       <c r="C39" s="87" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -7185,16 +7125,16 @@
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C40" s="87"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -7205,10 +7145,10 @@
       <c r="A41" s="17"/>
       <c r="B41" s="14"/>
       <c r="C41" s="87" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D41" s="87" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -7221,10 +7161,10 @@
       <c r="A42" s="17"/>
       <c r="B42" s="14"/>
       <c r="C42" s="87" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -7237,10 +7177,10 @@
       <c r="A43" s="17"/>
       <c r="B43" s="14"/>
       <c r="C43" s="87" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -7253,10 +7193,10 @@
       <c r="A44" s="17"/>
       <c r="B44" s="14"/>
       <c r="C44" s="87" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -7269,10 +7209,10 @@
       <c r="A45" s="17"/>
       <c r="B45" s="14"/>
       <c r="C45" s="87" t="s">
+        <v>411</v>
+      </c>
+      <c r="D45" s="87" t="s">
         <v>422</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>433</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -7285,10 +7225,10 @@
       <c r="A46" s="17"/>
       <c r="B46" s="14"/>
       <c r="C46" s="87" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -7301,10 +7241,10 @@
       <c r="A47" s="17"/>
       <c r="B47" s="14"/>
       <c r="C47" s="87" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D47" s="87" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -7317,10 +7257,10 @@
       <c r="A48" s="17"/>
       <c r="B48" s="14"/>
       <c r="C48" s="87" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -7331,16 +7271,16 @@
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -7351,10 +7291,10 @@
       <c r="A50" s="17"/>
       <c r="B50" s="14"/>
       <c r="C50" s="87" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D50" s="87" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -7367,10 +7307,10 @@
       <c r="A51" s="17"/>
       <c r="B51" s="14"/>
       <c r="C51" s="87" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -7383,10 +7323,10 @@
       <c r="A52" s="17"/>
       <c r="B52" s="14"/>
       <c r="C52" s="87" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D52" s="87" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -7399,10 +7339,10 @@
       <c r="A53" s="17"/>
       <c r="B53" s="14"/>
       <c r="C53" s="87" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -7415,10 +7355,10 @@
       <c r="A54" s="17"/>
       <c r="B54" s="14"/>
       <c r="C54" s="87" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -7431,10 +7371,10 @@
       <c r="A55" s="17"/>
       <c r="B55" s="14"/>
       <c r="C55" s="87" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -7447,10 +7387,10 @@
       <c r="A56" s="17"/>
       <c r="B56" s="14"/>
       <c r="C56" s="87" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D56" s="87" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -7463,10 +7403,10 @@
       <c r="A57" s="17"/>
       <c r="B57" s="14"/>
       <c r="C57" s="87" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D57" s="87" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -7566,7 +7506,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7582,54 +7522,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="149" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="150" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="161"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J3" s="133" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K3" s="133" t="s">
         <v>17</v>
@@ -7668,21 +7608,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="151" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="149" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="A1" s="152" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="133" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C2" s="133" t="s">
         <v>193</v>
@@ -7715,7 +7655,7 @@
         <v>209</v>
       </c>
       <c r="M2" s="135" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7735,8 +7675,8 @@
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="162"/>
       <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="114"/>
       <c r="G4" s="115"/>
       <c r="H4" s="116"/>
@@ -7749,8 +7689,8 @@
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="162"/>
       <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="165"/>
       <c r="F5" s="114"/>
       <c r="G5" s="115"/>
       <c r="H5" s="115"/>
@@ -7763,8 +7703,8 @@
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="162"/>
       <c r="C6" s="162"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="114"/>
       <c r="G6" s="115"/>
       <c r="H6" s="119"/>
@@ -7777,8 +7717,8 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="162"/>
       <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="114"/>
       <c r="G7" s="120"/>
       <c r="H7" s="119"/>
@@ -7791,8 +7731,8 @@
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="162"/>
       <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
       <c r="F8" s="114"/>
       <c r="G8" s="120"/>
       <c r="H8" s="119"/>
@@ -7845,9 +7785,9 @@
       <c r="M11" s="117"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="162"/>
-      <c r="D12" s="163"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="113"/>
       <c r="F12" s="114"/>
       <c r="G12" s="115"/>
@@ -7859,9 +7799,9 @@
       <c r="M12" s="123"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="161"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="162"/>
-      <c r="D13" s="163"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="113"/>
       <c r="F13" s="114"/>
       <c r="G13" s="115"/>
@@ -7873,9 +7813,9 @@
       <c r="M13" s="123"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="161"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="162"/>
-      <c r="D14" s="163"/>
+      <c r="D14" s="164"/>
       <c r="E14" s="113"/>
       <c r="F14" s="114"/>
       <c r="G14" s="115"/>
@@ -7887,9 +7827,9 @@
       <c r="M14" s="123"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="161"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
+      <c r="D15" s="164"/>
       <c r="E15" s="113"/>
       <c r="F15" s="114"/>
       <c r="G15" s="115"/>
@@ -7901,9 +7841,9 @@
       <c r="M15" s="123"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="161"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="113"/>
       <c r="F16" s="114"/>
       <c r="G16" s="115"/>
@@ -7915,9 +7855,9 @@
       <c r="M16" s="123"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="161"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="113"/>
       <c r="F17" s="114"/>
       <c r="G17" s="115"/>
@@ -7929,9 +7869,9 @@
       <c r="M17" s="123"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="161"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="162"/>
-      <c r="D18" s="163"/>
+      <c r="D18" s="164"/>
       <c r="E18" s="113"/>
       <c r="F18" s="114"/>
       <c r="G18" s="115"/>
@@ -7943,9 +7883,9 @@
       <c r="M18" s="123"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="161"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="113"/>
       <c r="F19" s="114"/>
       <c r="G19" s="115"/>
@@ -8000,6 +7940,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -8010,12 +7956,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8026,7 +7966,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection activeCell="C13" sqref="C13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8037,38 +7977,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="155" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
+      <c r="A1" s="156" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="150" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A3" s="128" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E5" s="136" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8079,172 +8019,172 @@
     </row>
     <row r="8" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="128" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="82" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="168" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="170"/>
+        <v>321</v>
+      </c>
+      <c r="C9" s="169" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="173"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="175"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="175"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="175"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="175"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="175"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="174"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="175"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="174"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="175"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="175"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="100"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="168"/>
     </row>
     <row r="22" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="128" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8252,16 +8192,16 @@
         <v>205</v>
       </c>
       <c r="C23" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="82" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="E23" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="82" t="s">
-        <v>273</v>
-      </c>
       <c r="F23" s="82" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G23" s="82" t="s">
         <v>17</v>
@@ -8326,7 +8266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8346,74 +8286,52 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>292</v>
-      </c>
+      <c r="A3" s="81"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="108" t="s">
-        <v>297</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="108"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>294</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
-        <v>293</v>
-      </c>
+      <c r="A6" s="81"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>296</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>295</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8548,7 +8466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8563,35 +8481,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="151" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
+      <c r="A1" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="154" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G2" s="131" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8600,19 +8518,19 @@
         <v>spec_type</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E3" s="110" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F3" s="110">
         <v>3</v>
       </c>
-      <c r="G3" s="185" t="s">
-        <v>531</v>
+      <c r="G3" s="145" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/my1stProject/apb_subsystem/apb_subsystem.xlsx
+++ b/my1stProject/apb_subsystem/apb_subsystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="517">
   <si>
     <t>Component Name</t>
   </si>
@@ -1487,15 +1487,9 @@
     <t>ex_ambaAHB_hwdata</t>
   </si>
   <si>
-    <t>HCLK</t>
-  </si>
-  <si>
     <t>clk</t>
   </si>
   <si>
-    <t>HRESETn</t>
-  </si>
-  <si>
     <t>rst_an</t>
   </si>
   <si>
@@ -1536,12 +1530,6 @@
   </si>
   <si>
     <t>i_apbbus_slv5_prdata</t>
-  </si>
-  <si>
-    <t>PCLK</t>
-  </si>
-  <si>
-    <t>PRESETn</t>
   </si>
   <si>
     <t>i_apbbus_slv6</t>
@@ -3002,10 +2990,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3678,10 +3666,10 @@
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="139" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C54" s="138" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3866,7 +3854,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>41</v>
@@ -3986,7 +3974,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="43" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>64</v>
@@ -4173,7 +4161,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="43" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>98</v>
@@ -4186,7 +4174,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="43" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>100</v>
@@ -4200,7 +4188,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="43" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>102</v>
@@ -4215,7 +4203,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>105</v>
@@ -4231,7 +4219,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="43" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>107</v>
@@ -4246,7 +4234,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="43" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>110</v>
@@ -4653,7 +4641,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="78" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C77" s="77" t="s">
         <v>236</v>
@@ -4768,7 +4756,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="63" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C88" s="64" t="s">
         <v>185</v>
@@ -4801,7 +4789,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="63" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>189</v>
@@ -4993,7 +4981,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="63" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C109" s="64" t="s">
         <v>249</v>
@@ -5076,7 +5064,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="63" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C117" s="64" t="s">
         <v>251</v>
@@ -5109,10 +5097,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="63" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D120" s="65"/>
       <c r="E120" s="66"/>
@@ -5120,10 +5108,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" s="63" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D121" s="65"/>
       <c r="E121" s="66"/>
@@ -5192,7 +5180,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="63" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C128" s="64" t="s">
         <v>328</v>
@@ -5236,7 +5224,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="63" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C132" s="64" t="s">
         <v>335</v>
@@ -5247,7 +5235,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="63" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C133" s="64" t="s">
         <v>336</v>
@@ -5293,7 +5281,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="63" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C138" s="64" t="s">
         <v>340</v>
@@ -5315,7 +5303,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="63" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C140" s="64" t="s">
         <v>343</v>
@@ -5326,7 +5314,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="63" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C141" s="64" t="s">
         <v>344</v>
@@ -5337,7 +5325,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="63" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C142" s="64" t="s">
         <v>345</v>
@@ -5365,7 +5353,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="63" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C145" s="64" t="s">
         <v>347</v>
@@ -5376,7 +5364,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="63" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C146" s="64" t="s">
         <v>348</v>
@@ -5398,7 +5386,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="63" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C148" s="64" t="s">
         <v>351</v>
@@ -5409,7 +5397,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="63" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C149" s="64" t="s">
         <v>352</v>
@@ -5420,7 +5408,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="63" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C150" s="64" t="s">
         <v>353</v>
@@ -5441,7 +5429,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="63" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C152" s="64" t="s">
         <v>278</v>
@@ -5521,7 +5509,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B160" s="63"/>
       <c r="C160" s="64"/>
@@ -5531,10 +5519,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" s="63" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C161" s="64" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D161" s="65"/>
       <c r="E161" s="66"/>
@@ -5542,10 +5530,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="63" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C162" s="64" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D162" s="65"/>
       <c r="E162" s="66"/>
@@ -5553,10 +5541,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" s="63" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C163" s="64" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D163" s="65"/>
       <c r="E163" s="66"/>
@@ -5564,10 +5552,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B164" s="63" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C164" s="64" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D164" s="65"/>
       <c r="E164" s="66"/>
@@ -5575,10 +5563,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" s="63" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C165" s="64" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D165" s="65"/>
       <c r="E165" s="66"/>
@@ -5586,10 +5574,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" s="63" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C166" s="64" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D166" s="65"/>
       <c r="E166" s="66"/>
@@ -5597,10 +5585,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" s="63" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C167" s="64" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D167" s="65"/>
       <c r="E167" s="66"/>
@@ -5611,7 +5599,7 @@
         <v>362</v>
       </c>
       <c r="C168" s="64" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D168" s="65"/>
       <c r="E168" s="66"/>
@@ -5619,10 +5607,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="63" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D169" s="65"/>
       <c r="E169" s="66"/>
@@ -5948,8 +5936,8 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5995,20 +5983,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6019,33 +6007,33 @@
         <v>372</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6053,10 +6041,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -6064,10 +6052,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -6075,10 +6063,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -6089,7 +6077,7 @@
         <v>387</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -6100,7 +6088,7 @@
         <v>375</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -6108,10 +6096,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -6119,10 +6107,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6130,10 +6118,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -6144,7 +6132,7 @@
         <v>389</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6152,10 +6140,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6166,7 +6154,7 @@
         <v>377</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6174,10 +6162,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6185,10 +6173,10 @@
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6196,10 +6184,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6207,10 +6195,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6218,10 +6206,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -6229,10 +6217,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -6240,10 +6228,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -6251,10 +6239,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -6262,10 +6250,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -6273,10 +6261,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -6284,10 +6272,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -6295,10 +6283,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -6306,10 +6294,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -6317,10 +6305,10 @@
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -6328,10 +6316,10 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -6339,10 +6327,10 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -6350,10 +6338,10 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -6361,10 +6349,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -6372,10 +6360,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -6383,10 +6371,10 @@
     </row>
     <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -6394,10 +6382,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -6405,10 +6393,10 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -6416,10 +6404,10 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -6427,10 +6415,10 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -6438,10 +6426,10 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -6465,9 +6453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6516,7 +6504,7 @@
         <v>303</v>
       </c>
       <c r="F2" s="144" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>304</v>
@@ -6528,7 +6516,7 @@
         <v>306</v>
       </c>
       <c r="J2" s="144" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -6536,12 +6524,12 @@
         <v>366</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="110" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6598,13 +6586,13 @@
         <v>373</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6802,12 +6790,8 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="87" t="s">
-        <v>398</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>399</v>
-      </c>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -6818,12 +6802,8 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="87" t="s">
-        <v>400</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>401</v>
-      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -6833,16 +6813,16 @@
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6853,10 +6833,10 @@
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="87" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -6869,10 +6849,10 @@
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="87" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -6885,10 +6865,10 @@
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="87" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -6901,10 +6881,10 @@
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -6917,10 +6897,10 @@
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="87" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6933,10 +6913,10 @@
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="87" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -6948,12 +6928,8 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="87" t="s">
-        <v>415</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>399</v>
-      </c>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -6964,12 +6940,8 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>401</v>
-      </c>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -6979,16 +6951,16 @@
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C31" s="87"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -6999,10 +6971,10 @@
       <c r="A32" s="17"/>
       <c r="B32" s="14"/>
       <c r="C32" s="87" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D32" s="87" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -7015,10 +6987,10 @@
       <c r="A33" s="17"/>
       <c r="B33" s="14"/>
       <c r="C33" s="87" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -7031,10 +7003,10 @@
       <c r="A34" s="17"/>
       <c r="B34" s="14"/>
       <c r="C34" s="87" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D34" s="87" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -7047,10 +7019,10 @@
       <c r="A35" s="17"/>
       <c r="B35" s="14"/>
       <c r="C35" s="87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -7063,10 +7035,10 @@
       <c r="A36" s="17"/>
       <c r="B36" s="14"/>
       <c r="C36" s="87" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -7079,10 +7051,10 @@
       <c r="A37" s="17"/>
       <c r="B37" s="14"/>
       <c r="C37" s="87" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -7094,12 +7066,8 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="87" t="s">
-        <v>415</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>399</v>
-      </c>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -7110,12 +7078,8 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>401</v>
-      </c>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -7125,16 +7089,16 @@
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C40" s="87"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -7145,10 +7109,10 @@
       <c r="A41" s="17"/>
       <c r="B41" s="14"/>
       <c r="C41" s="87" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D41" s="87" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -7161,10 +7125,10 @@
       <c r="A42" s="17"/>
       <c r="B42" s="14"/>
       <c r="C42" s="87" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -7177,10 +7141,10 @@
       <c r="A43" s="17"/>
       <c r="B43" s="14"/>
       <c r="C43" s="87" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -7193,10 +7157,10 @@
       <c r="A44" s="17"/>
       <c r="B44" s="14"/>
       <c r="C44" s="87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -7209,10 +7173,10 @@
       <c r="A45" s="17"/>
       <c r="B45" s="14"/>
       <c r="C45" s="87" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -7225,10 +7189,10 @@
       <c r="A46" s="17"/>
       <c r="B46" s="14"/>
       <c r="C46" s="87" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -7240,12 +7204,8 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="87" t="s">
-        <v>415</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>399</v>
-      </c>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -7256,12 +7216,8 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="D48" s="87" t="s">
-        <v>401</v>
-      </c>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -7271,16 +7227,16 @@
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -7291,10 +7247,10 @@
       <c r="A50" s="17"/>
       <c r="B50" s="14"/>
       <c r="C50" s="87" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D50" s="87" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -7307,10 +7263,10 @@
       <c r="A51" s="17"/>
       <c r="B51" s="14"/>
       <c r="C51" s="87" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -7323,10 +7279,10 @@
       <c r="A52" s="17"/>
       <c r="B52" s="14"/>
       <c r="C52" s="87" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D52" s="87" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -7339,10 +7295,10 @@
       <c r="A53" s="17"/>
       <c r="B53" s="14"/>
       <c r="C53" s="87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -7355,10 +7311,10 @@
       <c r="A54" s="17"/>
       <c r="B54" s="14"/>
       <c r="C54" s="87" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -7371,10 +7327,10 @@
       <c r="A55" s="17"/>
       <c r="B55" s="14"/>
       <c r="C55" s="87" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -7386,12 +7342,8 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="87" t="s">
-        <v>415</v>
-      </c>
-      <c r="D56" s="87" t="s">
-        <v>399</v>
-      </c>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -7402,12 +7354,8 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="D57" s="87" t="s">
-        <v>401</v>
-      </c>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -7659,7 +7607,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="162"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
       <c r="E3" s="113"/>
@@ -7673,8 +7621,8 @@
       <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="164"/>
       <c r="E4" s="165"/>
       <c r="F4" s="114"/>
@@ -7687,8 +7635,8 @@
       <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="164"/>
       <c r="E5" s="165"/>
       <c r="F5" s="114"/>
@@ -7701,8 +7649,8 @@
       <c r="M5" s="117"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="164"/>
       <c r="E6" s="165"/>
       <c r="F6" s="114"/>
@@ -7715,8 +7663,8 @@
       <c r="M6" s="117"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="164"/>
       <c r="E7" s="165"/>
       <c r="F7" s="114"/>
@@ -7729,8 +7677,8 @@
       <c r="M7" s="117"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
       <c r="D8" s="164"/>
       <c r="E8" s="165"/>
       <c r="F8" s="114"/>
@@ -7743,7 +7691,7 @@
       <c r="M8" s="123"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="92"/>
       <c r="D9" s="112"/>
       <c r="E9" s="113"/>
@@ -7757,7 +7705,7 @@
       <c r="M9" s="123"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="162"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="111"/>
       <c r="D10" s="112"/>
       <c r="E10" s="113"/>
@@ -7771,7 +7719,7 @@
       <c r="M10" s="112"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="162"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="125"/>
       <c r="D11" s="117"/>
       <c r="E11" s="126"/>
@@ -7785,8 +7733,8 @@
       <c r="M11" s="117"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="163"/>
-      <c r="C12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="164"/>
       <c r="E12" s="113"/>
       <c r="F12" s="114"/>
@@ -7799,8 +7747,8 @@
       <c r="M12" s="123"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="163"/>
-      <c r="C13" s="162"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
       <c r="D13" s="164"/>
       <c r="E13" s="113"/>
       <c r="F13" s="114"/>
@@ -7813,8 +7761,8 @@
       <c r="M13" s="123"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="163"/>
-      <c r="C14" s="162"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="164"/>
       <c r="E14" s="113"/>
       <c r="F14" s="114"/>
@@ -7827,8 +7775,8 @@
       <c r="M14" s="123"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="163"/>
-      <c r="C15" s="162"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
       <c r="D15" s="164"/>
       <c r="E15" s="113"/>
       <c r="F15" s="114"/>
@@ -7841,8 +7789,8 @@
       <c r="M15" s="123"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="163"/>
-      <c r="C16" s="162"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
       <c r="D16" s="164"/>
       <c r="E16" s="113"/>
       <c r="F16" s="114"/>
@@ -7855,8 +7803,8 @@
       <c r="M16" s="123"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="163"/>
-      <c r="C17" s="162"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
       <c r="D17" s="164"/>
       <c r="E17" s="113"/>
       <c r="F17" s="114"/>
@@ -7869,8 +7817,8 @@
       <c r="M17" s="123"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="163"/>
-      <c r="C18" s="162"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="164"/>
       <c r="E18" s="113"/>
       <c r="F18" s="114"/>
@@ -7883,8 +7831,8 @@
       <c r="M18" s="123"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="163"/>
-      <c r="C19" s="162"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="164"/>
       <c r="E19" s="113"/>
       <c r="F19" s="114"/>
@@ -7940,12 +7888,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7956,6 +7898,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8464,7 +8412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
@@ -8524,13 +8472,13 @@
         <v>365</v>
       </c>
       <c r="E3" s="110" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F3" s="110">
         <v>3</v>
       </c>
       <c r="G3" s="145" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
